--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92798266018129</v>
+        <v>20.92798266018137</v>
       </c>
       <c r="C2">
-        <v>13.8772777030089</v>
+        <v>13.87727770300889</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.49600867612104</v>
+        <v>13.49600867612101</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.79873768291173</v>
+        <v>20.79873768291166</v>
       </c>
       <c r="H2">
         <v>17.24879018640139</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.2634005353622</v>
+        <v>18.26340053536225</v>
       </c>
       <c r="K2">
-        <v>15.54817796856666</v>
+        <v>15.54817796856665</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47292414252395</v>
+        <v>19.47292414252397</v>
       </c>
       <c r="C3">
-        <v>12.91480744655326</v>
+        <v>12.91480744655344</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.50704813972837</v>
+        <v>12.50704813972829</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.12191024501836</v>
+        <v>20.1219102450184</v>
       </c>
       <c r="H3">
-        <v>17.01117014586325</v>
+        <v>17.01117014586337</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.02811658505485</v>
+        <v>17.02811658505493</v>
       </c>
       <c r="K3">
-        <v>14.43703287066609</v>
+        <v>14.43703287066606</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.53216765046701</v>
+        <v>18.53216765046706</v>
       </c>
       <c r="C4">
         <v>12.29441773305083</v>
@@ -497,25 +497,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.87128870006173</v>
+        <v>11.87128870006171</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.73130499159058</v>
+        <v>19.73130499159057</v>
       </c>
       <c r="H4">
-        <v>16.89324420085414</v>
+        <v>16.89324420085413</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.23071913314143</v>
+        <v>16.23071913314148</v>
       </c>
       <c r="K4">
-        <v>13.72201120003641</v>
+        <v>13.72201120003638</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13672663318896</v>
+        <v>18.13672663318897</v>
       </c>
       <c r="C5">
-        <v>12.03408058129974</v>
+        <v>12.03408058129976</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.60488304914302</v>
+        <v>11.60488304914304</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>19.5783182935983</v>
+        <v>19.57831829359818</v>
       </c>
       <c r="H5">
-        <v>16.85183470330001</v>
+        <v>16.85183470329992</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.89585731306251</v>
+        <v>15.89585731306255</v>
       </c>
       <c r="K5">
-        <v>13.42222573933117</v>
+        <v>13.4222257393312</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0703298675043</v>
+        <v>18.07032986750419</v>
       </c>
       <c r="C6">
-        <v>11.99039401570545</v>
+        <v>11.99039401570526</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.56019969502922</v>
+        <v>11.56019969502923</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>19.55328579164971</v>
+        <v>19.55328579164996</v>
       </c>
       <c r="H6">
-        <v>16.84534853951019</v>
+        <v>16.84534853951043</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.83965143324625</v>
+        <v>15.83965143324613</v>
       </c>
       <c r="K6">
-        <v>13.37193408882994</v>
+        <v>13.37193408882988</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.526883704064</v>
+        <v>18.52688370406413</v>
       </c>
       <c r="C7">
-        <v>12.29093735181603</v>
+        <v>12.290937351816</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.86772572815559</v>
+        <v>11.86772572815557</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>19.72921683350186</v>
+        <v>19.72921683350179</v>
       </c>
       <c r="H7">
-        <v>16.89265934847819</v>
+        <v>16.89265934847809</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.2262433762779</v>
+        <v>16.22624337627797</v>
       </c>
       <c r="K7">
-        <v>13.71800244601427</v>
+        <v>13.71800244601424</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43599925720282</v>
+        <v>20.4359992572029</v>
       </c>
       <c r="C8">
-        <v>13.55144828890882</v>
+        <v>13.5514482889087</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.1608411288019</v>
+        <v>13.16084112880188</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.56013347293261</v>
+        <v>20.56013347293264</v>
       </c>
       <c r="H8">
-        <v>17.16082323295423</v>
+        <v>17.16082323295418</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.84547297948443</v>
+        <v>17.84547297948445</v>
       </c>
       <c r="K8">
-        <v>15.17175297769911</v>
+        <v>15.17175297769909</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81237164010516</v>
+        <v>23.81237164010503</v>
       </c>
       <c r="C9">
-        <v>15.79598226032488</v>
+        <v>15.79598226032484</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47782815762146</v>
+        <v>15.47782815762142</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.39165411362745</v>
+        <v>22.3916541136275</v>
       </c>
       <c r="H9">
-        <v>17.92536419360836</v>
+        <v>17.92536419360844</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.71844274436769</v>
+        <v>20.7184427443676</v>
       </c>
       <c r="K9">
-        <v>17.77073990022265</v>
+        <v>17.77073990022262</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08156407193917</v>
+        <v>26.08156407193922</v>
       </c>
       <c r="C10">
-        <v>17.31610452256879</v>
+        <v>17.31610452256894</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.05846937036453</v>
+        <v>17.05846937036448</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>23.86706614897408</v>
+        <v>23.86706614897416</v>
       </c>
       <c r="H10">
-        <v>18.65475704168806</v>
+        <v>18.6547570416881</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.65526511475166</v>
+        <v>22.65526511475173</v>
       </c>
       <c r="K10">
         <v>19.53939837294564</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07109286120748</v>
+        <v>27.07109286120751</v>
       </c>
       <c r="C11">
-        <v>17.98212066455774</v>
+        <v>17.98212066455758</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.75412132529014</v>
+        <v>17.75412132529017</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>24.56851530246055</v>
+        <v>24.56851530246054</v>
       </c>
       <c r="H11">
-        <v>19.02767228164256</v>
+        <v>19.02767228164254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.50128280140192</v>
+        <v>23.50128280140191</v>
       </c>
       <c r="K11">
-        <v>20.31665435243831</v>
+        <v>20.31665435243829</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.43994855218442</v>
+        <v>27.43994855218452</v>
       </c>
       <c r="C12">
-        <v>18.23089339349406</v>
+        <v>18.23089339349416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.0144690837747</v>
+        <v>18.01446908377472</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>24.83872866810356</v>
+        <v>24.83872866810367</v>
       </c>
       <c r="H12">
-        <v>19.17519245534557</v>
+        <v>19.17519245534562</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.81686299667995</v>
+        <v>23.81686299668</v>
       </c>
       <c r="K12">
-        <v>20.60736034930275</v>
+        <v>20.60736034930276</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.3607644253751</v>
+        <v>27.36076442537513</v>
       </c>
       <c r="C13">
-        <v>18.17746438171922</v>
+        <v>18.17746438171918</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.9585306343287</v>
+        <v>17.95853063432872</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>24.78032470582744</v>
+        <v>24.78032470582742</v>
       </c>
       <c r="H13">
-        <v>19.14313441378328</v>
+        <v>19.14313441378325</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>23.74910574410767</v>
       </c>
       <c r="K13">
-        <v>20.54490751787576</v>
+        <v>20.54490751787575</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.10155445716016</v>
+        <v>27.10155445716021</v>
       </c>
       <c r="C14">
-        <v>18.0026547070069</v>
+        <v>18.00265470700693</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.77560027642545</v>
+        <v>17.77560027642549</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.59065231987743</v>
+        <v>24.59065231987741</v>
       </c>
       <c r="H14">
-        <v>19.0396801567837</v>
+        <v>19.03968015678365</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.52734017642669</v>
+        <v>23.52734017642674</v>
       </c>
       <c r="K14">
-        <v>20.34064165603138</v>
+        <v>20.34064165603142</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>26.94202720448782</v>
       </c>
       <c r="C15">
-        <v>17.895139077914</v>
+        <v>17.89513907791409</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.66315800540485</v>
+        <v>17.66315800540491</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.47507847500713</v>
+        <v>24.47507847500709</v>
       </c>
       <c r="H15">
-        <v>18.97714460861208</v>
+        <v>18.977144608612</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.39088682827973</v>
+        <v>23.39088682827979</v>
       </c>
       <c r="K15">
-        <v>20.21506066806435</v>
+        <v>20.21506066806446</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01605992187784</v>
+        <v>26.01605992187778</v>
       </c>
       <c r="C16">
-        <v>17.27208501500293</v>
+        <v>17.27208501500296</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.01255957120481</v>
+        <v>17.01255957120479</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>23.82185262452551</v>
+        <v>23.82185262452548</v>
       </c>
       <c r="H16">
         <v>18.63124661639459</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.59929134295901</v>
+        <v>22.59929134295897</v>
       </c>
       <c r="K16">
-        <v>19.48807831156651</v>
+        <v>19.48807831156652</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43725752683919</v>
+        <v>25.43725752683926</v>
       </c>
       <c r="C17">
-        <v>16.88348819219822</v>
+        <v>16.88348819219843</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.60763787745282</v>
+        <v>16.60763787745278</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.42902077521275</v>
+        <v>23.42902077521268</v>
       </c>
       <c r="H17">
-        <v>18.4298533312884</v>
+        <v>18.42985333128827</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.10486477387438</v>
+        <v>22.10486477387448</v>
       </c>
       <c r="K17">
-        <v>19.03530634337885</v>
+        <v>19.03530634337888</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10030388629079</v>
+        <v>25.10030388629085</v>
       </c>
       <c r="C18">
-        <v>16.65756226314949</v>
+        <v>16.65756226314943</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.37251715835559</v>
+        <v>16.37251715835555</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.20590625985864</v>
+        <v>23.20590625985855</v>
       </c>
       <c r="H18">
-        <v>18.31786255752697</v>
+        <v>18.31786255752685</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.81716748817718</v>
+        <v>21.81716748817719</v>
       </c>
       <c r="K18">
-        <v>18.7722924938959</v>
+        <v>18.77229249389584</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.98551473988319</v>
+        <v>24.98551473988327</v>
       </c>
       <c r="C19">
-        <v>16.5806461725952</v>
+        <v>16.58064617259492</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.29251992028627</v>
+        <v>16.29251992028621</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>23.13084384397435</v>
+        <v>23.13084384397427</v>
       </c>
       <c r="H19">
-        <v>18.28059314547258</v>
+        <v>18.28059314547252</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>21.71918140649303</v>
       </c>
       <c r="K19">
-        <v>18.68278680871641</v>
+        <v>18.68278680871632</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.49928835986617</v>
+        <v>25.49928835986618</v>
       </c>
       <c r="C20">
-        <v>16.92510337033208</v>
+        <v>16.92510337033194</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.6509703601532</v>
+        <v>16.65097036015322</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>23.47054381212749</v>
+        <v>23.47054381212751</v>
       </c>
       <c r="H20">
-        <v>18.45089122544092</v>
+        <v>18.45089122544091</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.15783881653641</v>
+        <v>22.15783881653639</v>
       </c>
       <c r="K20">
-        <v>19.08377081237779</v>
+        <v>19.08377081237775</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17784720657271</v>
+        <v>27.17784720657267</v>
       </c>
       <c r="C21">
-        <v>18.05409170958626</v>
+        <v>18.05409170958629</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.82941252057596</v>
+        <v>17.82941252057593</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>24.6462368873121</v>
+        <v>24.64623688731206</v>
       </c>
       <c r="H21">
-        <v>19.06989281270465</v>
+        <v>19.06989281270464</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.59260587834785</v>
+        <v>23.59260587834782</v>
       </c>
       <c r="K21">
-        <v>20.40073522356237</v>
+        <v>20.40073522356234</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24090104779771</v>
+        <v>28.24090104779772</v>
       </c>
       <c r="C22">
-        <v>18.77207139483414</v>
+        <v>18.77207139483419</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.58179659724514</v>
+        <v>18.58179659724513</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.44153873882365</v>
+        <v>25.4415387388237</v>
       </c>
       <c r="H22">
-        <v>19.51139931385591</v>
+        <v>19.51139931385596</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>24.5025410753353</v>
       </c>
       <c r="K22">
-        <v>21.24049562954097</v>
+        <v>21.24049562954096</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.67653391304467</v>
+        <v>27.67653391304465</v>
       </c>
       <c r="C23">
-        <v>18.39060577223066</v>
+        <v>18.39060577223073</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.18175976308205</v>
+        <v>18.18175976308208</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.01451022798146</v>
+        <v>25.01451022798152</v>
       </c>
       <c r="H23">
-        <v>19.27224136563393</v>
+        <v>19.272241365634</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.01934002016569</v>
+        <v>24.0193400201657</v>
       </c>
       <c r="K23">
-        <v>20.79410556206903</v>
+        <v>20.79410556206907</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47125730006914</v>
+        <v>25.47125730006928</v>
       </c>
       <c r="C24">
         <v>16.90629700362603</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.63138701004391</v>
+        <v>16.63138701004393</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>23.4517627613892</v>
+        <v>23.45176276138915</v>
       </c>
       <c r="H24">
-        <v>18.44136820887142</v>
+        <v>18.44136820887132</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.13390000043665</v>
+        <v>22.13390000043673</v>
       </c>
       <c r="K24">
-        <v>19.06186848694049</v>
+        <v>19.0618684869405</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93707835326335</v>
+        <v>22.93707835326333</v>
       </c>
       <c r="C25">
-        <v>15.21218112269137</v>
+        <v>15.21218112269121</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,22 +1298,22 @@
         <v>14.87330884421536</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>21.87394003759151</v>
+        <v>21.87394003759171</v>
       </c>
       <c r="H25">
-        <v>17.69066502728572</v>
+        <v>17.69066502728593</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.97259954793448</v>
+        <v>19.97259954793443</v>
       </c>
       <c r="K25">
-        <v>17.09337147282303</v>
+        <v>17.09337147282293</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92798266018137</v>
+        <v>20.92798266018129</v>
       </c>
       <c r="C2">
-        <v>13.87727770300889</v>
+        <v>13.8772777030089</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.49600867612101</v>
+        <v>13.49600867612104</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.79873768291166</v>
+        <v>20.79873768291173</v>
       </c>
       <c r="H2">
         <v>17.24879018640139</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.26340053536225</v>
+        <v>18.2634005353622</v>
       </c>
       <c r="K2">
-        <v>15.54817796856665</v>
+        <v>15.54817796856666</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47292414252397</v>
+        <v>19.47292414252395</v>
       </c>
       <c r="C3">
-        <v>12.91480744655344</v>
+        <v>12.91480744655326</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.50704813972829</v>
+        <v>12.50704813972837</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.1219102450184</v>
+        <v>20.12191024501836</v>
       </c>
       <c r="H3">
-        <v>17.01117014586337</v>
+        <v>17.01117014586325</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.02811658505493</v>
+        <v>17.02811658505485</v>
       </c>
       <c r="K3">
-        <v>14.43703287066606</v>
+        <v>14.43703287066609</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.53216765046706</v>
+        <v>18.53216765046701</v>
       </c>
       <c r="C4">
         <v>12.29441773305083</v>
@@ -497,25 +497,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.87128870006171</v>
+        <v>11.87128870006173</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.73130499159057</v>
+        <v>19.73130499159058</v>
       </c>
       <c r="H4">
-        <v>16.89324420085413</v>
+        <v>16.89324420085414</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.23071913314148</v>
+        <v>16.23071913314143</v>
       </c>
       <c r="K4">
-        <v>13.72201120003638</v>
+        <v>13.72201120003641</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13672663318897</v>
+        <v>18.13672663318896</v>
       </c>
       <c r="C5">
-        <v>12.03408058129976</v>
+        <v>12.03408058129974</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.60488304914304</v>
+        <v>11.60488304914302</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.57831829359818</v>
+        <v>19.5783182935983</v>
       </c>
       <c r="H5">
-        <v>16.85183470329992</v>
+        <v>16.85183470330001</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.89585731306255</v>
+        <v>15.89585731306251</v>
       </c>
       <c r="K5">
-        <v>13.4222257393312</v>
+        <v>13.42222573933117</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07032986750419</v>
+        <v>18.0703298675043</v>
       </c>
       <c r="C6">
-        <v>11.99039401570526</v>
+        <v>11.99039401570545</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.56019969502923</v>
+        <v>11.56019969502922</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.55328579164996</v>
+        <v>19.55328579164971</v>
       </c>
       <c r="H6">
-        <v>16.84534853951043</v>
+        <v>16.84534853951019</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.83965143324613</v>
+        <v>15.83965143324625</v>
       </c>
       <c r="K6">
-        <v>13.37193408882988</v>
+        <v>13.37193408882994</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52688370406413</v>
+        <v>18.526883704064</v>
       </c>
       <c r="C7">
-        <v>12.290937351816</v>
+        <v>12.29093735181603</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.86772572815557</v>
+        <v>11.86772572815559</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.72921683350179</v>
+        <v>19.72921683350186</v>
       </c>
       <c r="H7">
-        <v>16.89265934847809</v>
+        <v>16.89265934847819</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.22624337627797</v>
+        <v>16.2262433762779</v>
       </c>
       <c r="K7">
-        <v>13.71800244601424</v>
+        <v>13.71800244601427</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.4359992572029</v>
+        <v>20.43599925720282</v>
       </c>
       <c r="C8">
-        <v>13.5514482889087</v>
+        <v>13.55144828890882</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.16084112880188</v>
+        <v>13.1608411288019</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.56013347293264</v>
+        <v>20.56013347293261</v>
       </c>
       <c r="H8">
-        <v>17.16082323295418</v>
+        <v>17.16082323295423</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.84547297948445</v>
+        <v>17.84547297948443</v>
       </c>
       <c r="K8">
-        <v>15.17175297769909</v>
+        <v>15.17175297769911</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81237164010503</v>
+        <v>23.81237164010516</v>
       </c>
       <c r="C9">
-        <v>15.79598226032484</v>
+        <v>15.79598226032488</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47782815762142</v>
+        <v>15.47782815762146</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.3916541136275</v>
+        <v>22.39165411362745</v>
       </c>
       <c r="H9">
-        <v>17.92536419360844</v>
+        <v>17.92536419360836</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.7184427443676</v>
+        <v>20.71844274436769</v>
       </c>
       <c r="K9">
-        <v>17.77073990022262</v>
+        <v>17.77073990022265</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08156407193922</v>
+        <v>26.08156407193917</v>
       </c>
       <c r="C10">
-        <v>17.31610452256894</v>
+        <v>17.31610452256879</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.05846937036448</v>
+        <v>17.05846937036453</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>23.86706614897416</v>
+        <v>23.86706614897408</v>
       </c>
       <c r="H10">
-        <v>18.6547570416881</v>
+        <v>18.65475704168806</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.65526511475173</v>
+        <v>22.65526511475166</v>
       </c>
       <c r="K10">
         <v>19.53939837294564</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07109286120751</v>
+        <v>27.07109286120748</v>
       </c>
       <c r="C11">
-        <v>17.98212066455758</v>
+        <v>17.98212066455774</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.75412132529017</v>
+        <v>17.75412132529014</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.56851530246054</v>
+        <v>24.56851530246055</v>
       </c>
       <c r="H11">
-        <v>19.02767228164254</v>
+        <v>19.02767228164256</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.50128280140191</v>
+        <v>23.50128280140192</v>
       </c>
       <c r="K11">
-        <v>20.31665435243829</v>
+        <v>20.31665435243831</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.43994855218452</v>
+        <v>27.43994855218442</v>
       </c>
       <c r="C12">
-        <v>18.23089339349416</v>
+        <v>18.23089339349406</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.01446908377472</v>
+        <v>18.0144690837747</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.83872866810367</v>
+        <v>24.83872866810356</v>
       </c>
       <c r="H12">
-        <v>19.17519245534562</v>
+        <v>19.17519245534557</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.81686299668</v>
+        <v>23.81686299667995</v>
       </c>
       <c r="K12">
-        <v>20.60736034930276</v>
+        <v>20.60736034930275</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.36076442537513</v>
+        <v>27.3607644253751</v>
       </c>
       <c r="C13">
-        <v>18.17746438171918</v>
+        <v>18.17746438171922</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.95853063432872</v>
+        <v>17.9585306343287</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>24.78032470582742</v>
+        <v>24.78032470582744</v>
       </c>
       <c r="H13">
-        <v>19.14313441378325</v>
+        <v>19.14313441378328</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>23.74910574410767</v>
       </c>
       <c r="K13">
-        <v>20.54490751787575</v>
+        <v>20.54490751787576</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.10155445716021</v>
+        <v>27.10155445716016</v>
       </c>
       <c r="C14">
-        <v>18.00265470700693</v>
+        <v>18.0026547070069</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.77560027642549</v>
+        <v>17.77560027642545</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.59065231987741</v>
+        <v>24.59065231987743</v>
       </c>
       <c r="H14">
-        <v>19.03968015678365</v>
+        <v>19.0396801567837</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.52734017642674</v>
+        <v>23.52734017642669</v>
       </c>
       <c r="K14">
-        <v>20.34064165603142</v>
+        <v>20.34064165603138</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>26.94202720448782</v>
       </c>
       <c r="C15">
-        <v>17.89513907791409</v>
+        <v>17.895139077914</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.66315800540491</v>
+        <v>17.66315800540485</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.47507847500709</v>
+        <v>24.47507847500713</v>
       </c>
       <c r="H15">
-        <v>18.977144608612</v>
+        <v>18.97714460861208</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.39088682827979</v>
+        <v>23.39088682827973</v>
       </c>
       <c r="K15">
-        <v>20.21506066806446</v>
+        <v>20.21506066806435</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01605992187778</v>
+        <v>26.01605992187784</v>
       </c>
       <c r="C16">
-        <v>17.27208501500296</v>
+        <v>17.27208501500293</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.01255957120479</v>
+        <v>17.01255957120481</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>23.82185262452548</v>
+        <v>23.82185262452551</v>
       </c>
       <c r="H16">
         <v>18.63124661639459</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.59929134295897</v>
+        <v>22.59929134295901</v>
       </c>
       <c r="K16">
-        <v>19.48807831156652</v>
+        <v>19.48807831156651</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43725752683926</v>
+        <v>25.43725752683919</v>
       </c>
       <c r="C17">
-        <v>16.88348819219843</v>
+        <v>16.88348819219822</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.60763787745278</v>
+        <v>16.60763787745282</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.42902077521268</v>
+        <v>23.42902077521275</v>
       </c>
       <c r="H17">
-        <v>18.42985333128827</v>
+        <v>18.4298533312884</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.10486477387448</v>
+        <v>22.10486477387438</v>
       </c>
       <c r="K17">
-        <v>19.03530634337888</v>
+        <v>19.03530634337885</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10030388629085</v>
+        <v>25.10030388629079</v>
       </c>
       <c r="C18">
-        <v>16.65756226314943</v>
+        <v>16.65756226314949</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.37251715835555</v>
+        <v>16.37251715835559</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.20590625985855</v>
+        <v>23.20590625985864</v>
       </c>
       <c r="H18">
-        <v>18.31786255752685</v>
+        <v>18.31786255752697</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.81716748817719</v>
+        <v>21.81716748817718</v>
       </c>
       <c r="K18">
-        <v>18.77229249389584</v>
+        <v>18.7722924938959</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.98551473988327</v>
+        <v>24.98551473988319</v>
       </c>
       <c r="C19">
-        <v>16.58064617259492</v>
+        <v>16.5806461725952</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.29251992028621</v>
+        <v>16.29251992028627</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.13084384397427</v>
+        <v>23.13084384397435</v>
       </c>
       <c r="H19">
-        <v>18.28059314547252</v>
+        <v>18.28059314547258</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>21.71918140649303</v>
       </c>
       <c r="K19">
-        <v>18.68278680871632</v>
+        <v>18.68278680871641</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.49928835986618</v>
+        <v>25.49928835986617</v>
       </c>
       <c r="C20">
-        <v>16.92510337033194</v>
+        <v>16.92510337033208</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.65097036015322</v>
+        <v>16.6509703601532</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.47054381212751</v>
+        <v>23.47054381212749</v>
       </c>
       <c r="H20">
-        <v>18.45089122544091</v>
+        <v>18.45089122544092</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.15783881653639</v>
+        <v>22.15783881653641</v>
       </c>
       <c r="K20">
-        <v>19.08377081237775</v>
+        <v>19.08377081237779</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17784720657267</v>
+        <v>27.17784720657271</v>
       </c>
       <c r="C21">
-        <v>18.05409170958629</v>
+        <v>18.05409170958626</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.82941252057593</v>
+        <v>17.82941252057596</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.64623688731206</v>
+        <v>24.6462368873121</v>
       </c>
       <c r="H21">
-        <v>19.06989281270464</v>
+        <v>19.06989281270465</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.59260587834782</v>
+        <v>23.59260587834785</v>
       </c>
       <c r="K21">
-        <v>20.40073522356234</v>
+        <v>20.40073522356237</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24090104779772</v>
+        <v>28.24090104779771</v>
       </c>
       <c r="C22">
-        <v>18.77207139483419</v>
+        <v>18.77207139483414</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.58179659724513</v>
+        <v>18.58179659724514</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.4415387388237</v>
+        <v>25.44153873882365</v>
       </c>
       <c r="H22">
-        <v>19.51139931385596</v>
+        <v>19.51139931385591</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>24.5025410753353</v>
       </c>
       <c r="K22">
-        <v>21.24049562954096</v>
+        <v>21.24049562954097</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.67653391304465</v>
+        <v>27.67653391304467</v>
       </c>
       <c r="C23">
-        <v>18.39060577223073</v>
+        <v>18.39060577223066</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.18175976308208</v>
+        <v>18.18175976308205</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.01451022798152</v>
+        <v>25.01451022798146</v>
       </c>
       <c r="H23">
-        <v>19.272241365634</v>
+        <v>19.27224136563393</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.0193400201657</v>
+        <v>24.01934002016569</v>
       </c>
       <c r="K23">
-        <v>20.79410556206907</v>
+        <v>20.79410556206903</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47125730006928</v>
+        <v>25.47125730006914</v>
       </c>
       <c r="C24">
         <v>16.90629700362603</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.63138701004393</v>
+        <v>16.63138701004391</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.45176276138915</v>
+        <v>23.4517627613892</v>
       </c>
       <c r="H24">
-        <v>18.44136820887132</v>
+        <v>18.44136820887142</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.13390000043673</v>
+        <v>22.13390000043665</v>
       </c>
       <c r="K24">
-        <v>19.0618684869405</v>
+        <v>19.06186848694049</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93707835326333</v>
+        <v>22.93707835326335</v>
       </c>
       <c r="C25">
-        <v>15.21218112269121</v>
+        <v>15.21218112269137</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,22 +1298,22 @@
         <v>14.87330884421536</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>21.87394003759171</v>
+        <v>21.87394003759151</v>
       </c>
       <c r="H25">
-        <v>17.69066502728593</v>
+        <v>17.69066502728572</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.97259954793443</v>
+        <v>19.97259954793448</v>
       </c>
       <c r="K25">
-        <v>17.09337147282293</v>
+        <v>17.09337147282303</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92798266018129</v>
+        <v>20.92796656593295</v>
       </c>
       <c r="C2">
-        <v>13.8772777030089</v>
+        <v>13.87254175392514</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.49600867612104</v>
+        <v>13.4968336351094</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.79873768291173</v>
+        <v>19.37789519446434</v>
       </c>
       <c r="H2">
-        <v>17.24879018640139</v>
+        <v>20.82282946343027</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.22922915368039</v>
       </c>
       <c r="J2">
-        <v>18.2634005353622</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.54817796856666</v>
+        <v>18.26183057552067</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.54718554675918</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47292414252395</v>
+        <v>19.47308102493878</v>
       </c>
       <c r="C3">
-        <v>12.91480744655326</v>
+        <v>12.91057389333279</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.50704813972837</v>
+        <v>12.50785465169138</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.12191024501836</v>
+        <v>18.42333564425591</v>
       </c>
       <c r="H3">
-        <v>17.01117014586325</v>
+        <v>20.14579931334789</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.99321357705818</v>
       </c>
       <c r="J3">
-        <v>17.02811658505485</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.43703287066609</v>
+        <v>17.0268442589247</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.43618422122109</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.53216765046701</v>
+        <v>18.5324257384213</v>
       </c>
       <c r="C4">
-        <v>12.29441773305083</v>
+        <v>12.29050199940403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.87128870006173</v>
+        <v>11.87207869914724</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.73130499159058</v>
+        <v>17.85022863984751</v>
       </c>
       <c r="H4">
-        <v>16.89324420085414</v>
+        <v>19.75516543029618</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.87629125717443</v>
       </c>
       <c r="J4">
-        <v>16.23071913314143</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.72201120003641</v>
+        <v>16.22963198290955</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.72124826080126</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13672663318896</v>
+        <v>18.13702493983165</v>
       </c>
       <c r="C5">
-        <v>12.03408058129974</v>
+        <v>12.03029703976563</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.60488304914302</v>
+        <v>11.60566513895053</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.5783182935983</v>
+        <v>17.62011887534714</v>
       </c>
       <c r="H5">
-        <v>16.85183470330001</v>
+        <v>19.60219050086675</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.83529441853517</v>
       </c>
       <c r="J5">
-        <v>15.89585731306251</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.42222573933117</v>
+        <v>15.89484654020995</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.42149725742344</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0703298675043</v>
+        <v>18.07063479716761</v>
       </c>
       <c r="C6">
-        <v>11.99039401570545</v>
+        <v>11.98663259593848</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.56019969502922</v>
+        <v>11.56098040361168</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.55328579164971</v>
+        <v>17.58212238462074</v>
       </c>
       <c r="H6">
-        <v>16.84534853951019</v>
+        <v>19.5771613451532</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.82887697063794</v>
       </c>
       <c r="J6">
-        <v>15.83965143324625</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.37193408882994</v>
+        <v>15.83865340714148</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.37121130491398</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.526883704064</v>
+        <v>18.52714233826723</v>
       </c>
       <c r="C7">
-        <v>12.29093735181603</v>
+        <v>12.28702338968106</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.86772572815559</v>
+        <v>11.86851562519782</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.72921683350186</v>
+        <v>17.84711114047202</v>
       </c>
       <c r="H7">
-        <v>16.89265934847819</v>
+        <v>19.75307733705966</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.87571195644596</v>
       </c>
       <c r="J7">
-        <v>16.2262433762779</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.71800244601427</v>
+        <v>16.2251572519813</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.71723997316852</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43599925720282</v>
+        <v>20.43604399066445</v>
       </c>
       <c r="C8">
-        <v>13.55144828890882</v>
+        <v>13.54688382399759</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.1608411288019</v>
+        <v>13.16166088275498</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.56013347293261</v>
+        <v>19.04615448569072</v>
       </c>
       <c r="H8">
-        <v>17.16082323295423</v>
+        <v>20.58413513170848</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.14181099284015</v>
       </c>
       <c r="J8">
-        <v>17.84547297948443</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.17175297769911</v>
+        <v>17.84400532500465</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.17081077276994</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.81237164010516</v>
+        <v>23.8119454945884</v>
       </c>
       <c r="C9">
-        <v>15.79598226032488</v>
+        <v>15.79020123959519</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47782815762146</v>
+        <v>15.47865884104546</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.39165411362745</v>
+        <v>21.49566428989452</v>
       </c>
       <c r="H9">
-        <v>17.92536419360836</v>
+        <v>22.41671215630502</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.90249231925595</v>
       </c>
       <c r="J9">
-        <v>20.71844274436769</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.77073990022265</v>
+        <v>20.71623204812007</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.76941580645389</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08156407193917</v>
+        <v>26.0807418813837</v>
       </c>
       <c r="C10">
-        <v>17.31610452256879</v>
+        <v>17.30944328042331</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.05846937036453</v>
+        <v>17.0592682109937</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>23.86706614897408</v>
+        <v>23.3532469538681</v>
       </c>
       <c r="H10">
-        <v>18.65475704168806</v>
+        <v>23.89338865763806</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.62921763356702</v>
       </c>
       <c r="J10">
-        <v>22.65526511475166</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.53939837294564</v>
+        <v>22.65249055448501</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>19.53776077162972</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07109286120748</v>
+        <v>27.07007453121977</v>
       </c>
       <c r="C11">
-        <v>17.98212066455774</v>
+        <v>17.9750562595112</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.75412132529014</v>
+        <v>17.75489389899708</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>24.56851530246055</v>
+        <v>24.21204135519488</v>
       </c>
       <c r="H11">
-        <v>19.02767228164256</v>
+        <v>24.59551879657025</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.00096403943106</v>
       </c>
       <c r="J11">
-        <v>23.50128280140192</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.31665435243831</v>
+        <v>23.49824245945627</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.31486275376477</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.43994855218442</v>
+        <v>27.43885313111416</v>
       </c>
       <c r="C12">
-        <v>18.23089339349406</v>
+        <v>18.22367536873096</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.0144690837747</v>
+        <v>18.01522968250117</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>24.83872866810356</v>
+        <v>24.53943774878977</v>
       </c>
       <c r="H12">
-        <v>19.17519245534557</v>
+        <v>24.86600506297695</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.1480483874717</v>
       </c>
       <c r="J12">
-        <v>23.81686299667995</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.60736034930275</v>
+        <v>23.81372014567245</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.60550835605929</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.3607644253751</v>
+        <v>27.35968574188205</v>
       </c>
       <c r="C13">
-        <v>18.17746438171922</v>
+        <v>18.17027949381501</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.9585306343287</v>
+        <v>17.9592939084166</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>24.78032470582744</v>
+        <v>24.46882525430471</v>
       </c>
       <c r="H13">
-        <v>19.14313441378328</v>
+        <v>24.80754166215783</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.1160839042884</v>
       </c>
       <c r="J13">
-        <v>23.74910574410767</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.54490751787576</v>
+        <v>23.74598506251096</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.54306863219166</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.10155445716016</v>
+        <v>27.10052984463185</v>
       </c>
       <c r="C14">
-        <v>18.0026547070069</v>
+        <v>17.9955776861316</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.77560027642545</v>
+        <v>17.77637190777309</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>24.59065231987743</v>
+        <v>24.23893100404429</v>
       </c>
       <c r="H14">
-        <v>19.0396801567837</v>
+        <v>24.61767796589674</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.01293592187983</v>
       </c>
       <c r="J14">
-        <v>23.52734017642669</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.34064165603138</v>
+        <v>23.52429144168774</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>20.33884513319121</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.94202720448782</v>
+        <v>26.94103532800646</v>
       </c>
       <c r="C15">
-        <v>17.895139077914</v>
+        <v>17.88812798688487</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.66315800540485</v>
+        <v>17.66393448049658</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>24.47507847500713</v>
+        <v>24.0984072551323</v>
       </c>
       <c r="H15">
-        <v>18.97714460861208</v>
+        <v>24.50198888792389</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.95058886538094</v>
       </c>
       <c r="J15">
-        <v>23.39088682827973</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.21506066806435</v>
+        <v>23.38788190321497</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20.21328980823977</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01605992187784</v>
+        <v>26.01525018569052</v>
       </c>
       <c r="C16">
-        <v>17.27208501500293</v>
+        <v>17.26545001969159</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.01255957120481</v>
+        <v>17.0133598644317</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>23.82185262452551</v>
+        <v>23.29741541698554</v>
       </c>
       <c r="H16">
-        <v>18.63124661639459</v>
+        <v>23.84813274389465</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.60578453057472</v>
       </c>
       <c r="J16">
-        <v>22.59929134295901</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.48807831156651</v>
+        <v>22.59653392214155</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>19.4864505094988</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43725752683919</v>
+        <v>25.43655509462582</v>
       </c>
       <c r="C17">
-        <v>16.88348819219822</v>
+        <v>16.8770828470075</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.60763787745282</v>
+        <v>16.60844954899229</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.42902077521275</v>
+        <v>22.80967732434545</v>
       </c>
       <c r="H17">
-        <v>18.4298533312884</v>
+        <v>23.45494121859137</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.40507395286539</v>
       </c>
       <c r="J17">
-        <v>22.10486477387438</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.03530634337885</v>
+        <v>22.1022564619655</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>19.0337630997822</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10030388629079</v>
+        <v>25.09966170478285</v>
       </c>
       <c r="C18">
-        <v>16.65756226314949</v>
+        <v>16.65128878593873</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.37251715835559</v>
+        <v>16.37333428922592</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.20590625985864</v>
+        <v>22.53042103057321</v>
       </c>
       <c r="H18">
-        <v>18.31786255752697</v>
+        <v>23.23162980034409</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.29348005011685</v>
       </c>
       <c r="J18">
-        <v>21.81716748817718</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.7722924938959</v>
+        <v>21.81464410262049</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>18.77079684598919</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.98551473988319</v>
+        <v>24.98489272049598</v>
       </c>
       <c r="C19">
-        <v>16.5806461725952</v>
+        <v>16.57441732127496</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.29251992028627</v>
+        <v>16.29333872225242</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.13084384397435</v>
+        <v>22.43608435961989</v>
       </c>
       <c r="H19">
-        <v>18.28059314547258</v>
+        <v>23.15650243363464</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.25634571654984</v>
       </c>
       <c r="J19">
-        <v>21.71918140649303</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.68278680871641</v>
+        <v>21.71668664654304</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>18.68130710932922</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.49928835986617</v>
+        <v>25.49857466033114</v>
       </c>
       <c r="C20">
-        <v>16.92510337033208</v>
+        <v>16.91867360508703</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.6509703601532</v>
+        <v>16.65178093495561</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.47054381212749</v>
+        <v>22.86146443915798</v>
       </c>
       <c r="H20">
-        <v>18.45089122544092</v>
+        <v>23.49650151249812</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.42603873382042</v>
       </c>
       <c r="J20">
-        <v>22.15783881653641</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.08377081237779</v>
+        <v>22.15521472193674</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>19.08221867795922</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17784720657271</v>
+        <v>27.17680679318153</v>
       </c>
       <c r="C21">
-        <v>18.05409170958626</v>
+        <v>18.04698303622815</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.82941252057596</v>
+        <v>17.83018175527451</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>24.6462368873121</v>
+        <v>24.30639491201937</v>
       </c>
       <c r="H21">
-        <v>19.06989281270465</v>
+        <v>24.67331831987299</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.0430584319004</v>
       </c>
       <c r="J21">
-        <v>23.59260587834785</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.40073522356237</v>
+        <v>23.58953606629832</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>20.39892631813823</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.24090104779771</v>
+        <v>28.23963037011647</v>
       </c>
       <c r="C22">
-        <v>18.77207139483414</v>
+        <v>18.76451314690061</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.58179659724514</v>
+        <v>18.58252677864506</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>25.44153873882365</v>
+        <v>25.29458678987933</v>
       </c>
       <c r="H22">
-        <v>19.51139931385591</v>
+        <v>25.46944203958481</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.48330915704414</v>
       </c>
       <c r="J22">
-        <v>24.5025410753353</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.24049562954097</v>
+        <v>24.49916878655844</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>21.23850651448916</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.67653391304467</v>
+        <v>27.6753878617005</v>
       </c>
       <c r="C23">
-        <v>18.39060577223066</v>
+        <v>18.38328821604891</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.18175976308205</v>
+        <v>18.18251202006532</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.01451022798146</v>
+        <v>24.75147702836144</v>
       </c>
       <c r="H23">
-        <v>19.27224136563393</v>
+        <v>25.04196696268714</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.24481778427618</v>
       </c>
       <c r="J23">
-        <v>24.01934002016569</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.79410556206903</v>
+        <v>24.01613039042578</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.79221393379975</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47125730006914</v>
+        <v>25.47054869893706</v>
       </c>
       <c r="C24">
-        <v>16.90629700362603</v>
+        <v>16.8998782791479</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.63138701004391</v>
+        <v>16.63219808402804</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.4517627613892</v>
+        <v>22.83804791439813</v>
       </c>
       <c r="H24">
-        <v>18.44136820887142</v>
+        <v>23.47770358709317</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.41654875813602</v>
       </c>
       <c r="J24">
-        <v>22.13390000043665</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.06186848694049</v>
+        <v>22.13128304363944</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>19.06032037520161</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93707835326335</v>
+        <v>22.93678687288814</v>
       </c>
       <c r="C25">
-        <v>15.21218112269137</v>
+        <v>15.20672508441072</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.87330884421536</v>
+        <v>14.87414266999022</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>21.87394003759151</v>
+        <v>20.82294725959233</v>
       </c>
       <c r="H25">
-        <v>17.69066502728572</v>
+        <v>21.8986268612335</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.66881116584462</v>
       </c>
       <c r="J25">
-        <v>19.97259954793448</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.09337147282303</v>
+        <v>19.97059137392138</v>
       </c>
       <c r="L25">
+        <v>17.09215523757126</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92796656593295</v>
+        <v>21.82656872634752</v>
       </c>
       <c r="C2">
-        <v>13.87254175392514</v>
+        <v>15.09486103363723</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.4968336351094</v>
+        <v>7.138129305191937</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>40.4184441458059</v>
       </c>
       <c r="G2">
-        <v>19.37789519446434</v>
+        <v>2.085880382354015</v>
       </c>
       <c r="H2">
-        <v>20.82282946343027</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.22922915368039</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.737077891731363</v>
       </c>
       <c r="K2">
-        <v>18.26183057552067</v>
+        <v>19.02603587213375</v>
       </c>
       <c r="L2">
-        <v>15.54718554675918</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.56795051716012</v>
+      </c>
+      <c r="N2">
+        <v>14.28525959601736</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.47308102493878</v>
+        <v>20.25500016297517</v>
       </c>
       <c r="C3">
-        <v>12.91057389333279</v>
+        <v>13.99351570739011</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.50785465169138</v>
+        <v>6.99258354171609</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>38.73224504828971</v>
       </c>
       <c r="G3">
-        <v>18.42333564425591</v>
+        <v>2.097486062046454</v>
       </c>
       <c r="H3">
-        <v>20.14579931334789</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.99321357705818</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.789062686869694</v>
       </c>
       <c r="K3">
-        <v>17.0268442589247</v>
+        <v>17.64658893990935</v>
       </c>
       <c r="L3">
-        <v>14.43618422122109</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.79920777143929</v>
+      </c>
+      <c r="N3">
+        <v>14.45268045519672</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.5324257384213</v>
+        <v>19.30505636232169</v>
       </c>
       <c r="C4">
-        <v>12.29050199940403</v>
+        <v>13.2853895030295</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.87207869914724</v>
+        <v>6.904480253273062</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>37.70027686604451</v>
       </c>
       <c r="G4">
-        <v>17.85022863984751</v>
+        <v>2.104755131825889</v>
       </c>
       <c r="H4">
-        <v>19.75516543029618</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.87629125717443</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.823320010255002</v>
       </c>
       <c r="K4">
-        <v>16.22963198290955</v>
+        <v>16.75854194754716</v>
       </c>
       <c r="L4">
-        <v>13.72124826080126</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.3193547729826</v>
+      </c>
+      <c r="N4">
+        <v>14.56079544100405</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13702493983165</v>
+        <v>18.92469905698226</v>
       </c>
       <c r="C5">
-        <v>12.03029703976563</v>
+        <v>12.98865251256095</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.60566513895053</v>
+        <v>6.868932753812112</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>37.28096582480598</v>
       </c>
       <c r="G5">
-        <v>17.62011887534714</v>
+        <v>2.107756494082707</v>
       </c>
       <c r="H5">
-        <v>19.60219050086675</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.83529441853517</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.837846974645959</v>
       </c>
       <c r="K5">
-        <v>15.89484654020995</v>
+        <v>16.38614501239425</v>
       </c>
       <c r="L5">
-        <v>13.42149725742344</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.12205417510253</v>
+      </c>
+      <c r="N5">
+        <v>14.60613660411424</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.07063479716761</v>
+        <v>18.86105730917178</v>
       </c>
       <c r="C6">
-        <v>11.98663259593848</v>
+        <v>12.93888207778504</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.56098040361168</v>
+        <v>6.863052718040585</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>37.21142583630099</v>
       </c>
       <c r="G6">
-        <v>17.58212238462074</v>
+        <v>2.108257320568916</v>
       </c>
       <c r="H6">
-        <v>19.5771613451532</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.82887697063794</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.840292829475828</v>
       </c>
       <c r="K6">
-        <v>15.83865340714148</v>
+        <v>16.32366887004632</v>
       </c>
       <c r="L6">
-        <v>13.37121130491398</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.08919364462274</v>
+      </c>
+      <c r="N6">
+        <v>14.61374155231421</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.52714233826723</v>
+        <v>19.29995926232028</v>
       </c>
       <c r="C7">
-        <v>12.28702338968106</v>
+        <v>13.28142086904591</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.86851562519782</v>
+        <v>6.903999357308313</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>37.69461638424981</v>
       </c>
       <c r="G7">
-        <v>17.84711114047202</v>
+        <v>2.104795446706638</v>
       </c>
       <c r="H7">
-        <v>19.75307733705966</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.87571195644596</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.823513657059212</v>
       </c>
       <c r="K7">
-        <v>16.2251572519813</v>
+        <v>16.75356246249261</v>
       </c>
       <c r="L7">
-        <v>13.71723997316852</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.31670070269707</v>
+      </c>
+      <c r="N7">
+        <v>14.56140179692565</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43604399066445</v>
+        <v>21.29394978254456</v>
       </c>
       <c r="C8">
-        <v>13.54688382399759</v>
+        <v>14.72164183942346</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.16166088275498</v>
+        <v>7.087705189091436</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>39.83654899066008</v>
       </c>
       <c r="G8">
-        <v>19.04615448569072</v>
+        <v>2.089854304843171</v>
       </c>
       <c r="H8">
-        <v>20.58413513170848</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.14181099284015</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.754503322278109</v>
       </c>
       <c r="K8">
-        <v>17.84400532500465</v>
+        <v>18.55880769326278</v>
       </c>
       <c r="L8">
-        <v>15.17081077276994</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.30463053623814</v>
+      </c>
+      <c r="N8">
+        <v>14.34184780083421</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.8119454945884</v>
+        <v>24.97377205723357</v>
       </c>
       <c r="C9">
-        <v>15.79020123959519</v>
+        <v>17.30051308626631</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.47865884104546</v>
+        <v>7.456441849671647</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>44.05109629357034</v>
       </c>
       <c r="G9">
-        <v>21.49566428989452</v>
+        <v>2.06153174385104</v>
       </c>
       <c r="H9">
-        <v>22.41671215630502</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.90249231925595</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.638834758153313</v>
       </c>
       <c r="K9">
-        <v>20.71623204812007</v>
+        <v>21.78241851196607</v>
       </c>
       <c r="L9">
-        <v>17.76941580645389</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.17269021626873</v>
+      </c>
+      <c r="N9">
+        <v>13.9563632804749</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0807418813837</v>
+        <v>27.47860192259629</v>
       </c>
       <c r="C10">
-        <v>17.30944328042331</v>
+        <v>19.05782500130262</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.0592682109937</v>
+        <v>7.730772004101672</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>47.14643317546403</v>
       </c>
       <c r="G10">
-        <v>23.3532469538681</v>
+        <v>2.041069185261825</v>
       </c>
       <c r="H10">
-        <v>23.89338865763806</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.62921763356702</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.567650841526193</v>
       </c>
       <c r="K10">
-        <v>22.65249055448501</v>
+        <v>23.97247474491397</v>
       </c>
       <c r="L10">
-        <v>19.53776077162972</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.805545172485</v>
+      </c>
+      <c r="N10">
+        <v>13.70541613022736</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07007453121977</v>
+        <v>28.57885573584758</v>
       </c>
       <c r="C11">
-        <v>17.9750562595112</v>
+        <v>19.83063187136828</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.75489389899708</v>
+        <v>7.856048978923484</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>48.55445464655614</v>
       </c>
       <c r="G11">
-        <v>24.21204135519488</v>
+        <v>2.03177038565168</v>
       </c>
       <c r="H11">
-        <v>24.59551879657025</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.00096403943106</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.538761619965647</v>
       </c>
       <c r="K11">
-        <v>23.49824245945627</v>
+        <v>24.93381968791354</v>
       </c>
       <c r="L11">
-        <v>20.31486275376477</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.53748051495082</v>
+      </c>
+      <c r="N11">
+        <v>13.59961511592222</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.43885313111416</v>
+        <v>28.99023955411932</v>
       </c>
       <c r="C12">
-        <v>18.22367536873096</v>
+        <v>20.11975732536885</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.01522968250117</v>
+        <v>7.903544435454846</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>49.08779062908026</v>
       </c>
       <c r="G12">
-        <v>24.53943774878977</v>
+        <v>2.028244246339503</v>
       </c>
       <c r="H12">
-        <v>24.86600506297695</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.1480483874717</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.52837496405898</v>
       </c>
       <c r="K12">
-        <v>23.81372014567245</v>
+        <v>25.2931942165709</v>
       </c>
       <c r="L12">
-        <v>20.60550835605929</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.81055121109988</v>
+      </c>
+      <c r="N12">
+        <v>13.56089323959185</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.35968574188205</v>
+        <v>28.90186789637205</v>
       </c>
       <c r="C13">
-        <v>18.17027949381501</v>
+        <v>20.05764018956684</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.9592939084166</v>
+        <v>7.893313083367137</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>48.97291663361621</v>
       </c>
       <c r="G13">
-        <v>24.46882525430471</v>
+        <v>2.02900399072293</v>
       </c>
       <c r="H13">
-        <v>24.80754166215783</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.1160839042884</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.530586416543148</v>
       </c>
       <c r="K13">
-        <v>23.74598506251096</v>
+        <v>25.21599781256646</v>
       </c>
       <c r="L13">
-        <v>20.54306863219166</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.75191894198079</v>
+      </c>
+      <c r="N13">
+        <v>13.56917044879753</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.10052984463185</v>
+        <v>28.61280353815366</v>
       </c>
       <c r="C14">
-        <v>17.9955776861316</v>
+        <v>19.85448703077961</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.77637190777309</v>
+        <v>7.859955388413454</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>48.59832816121871</v>
       </c>
       <c r="G14">
-        <v>24.23893100404429</v>
+        <v>2.031480425214089</v>
       </c>
       <c r="H14">
-        <v>24.61767796589674</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.01293592187983</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.537895697469616</v>
       </c>
       <c r="K14">
-        <v>23.52429144168774</v>
+        <v>24.96347694809519</v>
       </c>
       <c r="L14">
-        <v>20.33884513319121</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.56002694963984</v>
+      </c>
+      <c r="N14">
+        <v>13.59640163469887</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.94103532800646</v>
+        <v>28.43507070867256</v>
       </c>
       <c r="C15">
-        <v>17.88812798688487</v>
+        <v>19.72960129380485</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.66393448049658</v>
+        <v>7.839529841846396</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>48.3689082203484</v>
       </c>
       <c r="G15">
-        <v>24.0984072551323</v>
+        <v>2.032996474607207</v>
       </c>
       <c r="H15">
-        <v>24.50198888792389</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.95058886538094</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.542446522920734</v>
       </c>
       <c r="K15">
-        <v>23.38788190321497</v>
+        <v>24.80820436675593</v>
       </c>
       <c r="L15">
-        <v>20.21328980823977</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.44196104035954</v>
+      </c>
+      <c r="N15">
+        <v>13.61326100219024</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.01525018569052</v>
+        <v>27.40593997322924</v>
       </c>
       <c r="C16">
-        <v>17.26545001969159</v>
+        <v>19.00681010989312</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.0133598644317</v>
+        <v>7.722593219794177</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>47.05442492490258</v>
       </c>
       <c r="G16">
-        <v>23.29741541698554</v>
+        <v>2.041676562278511</v>
       </c>
       <c r="H16">
-        <v>23.84813274389465</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.60578453057472</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.569613256222286</v>
       </c>
       <c r="K16">
-        <v>22.59653392214155</v>
+        <v>23.90897521634126</v>
       </c>
       <c r="L16">
-        <v>19.4864505094988</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.75712538606825</v>
+      </c>
+      <c r="N16">
+        <v>13.71251011185828</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43655509462582</v>
+        <v>26.76481251540264</v>
       </c>
       <c r="C17">
-        <v>16.8770828470075</v>
+        <v>18.55679195771432</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.60844954899229</v>
+        <v>7.650967779896559</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>46.24808752418769</v>
       </c>
       <c r="G17">
-        <v>22.80967732434545</v>
+        <v>2.046999806746839</v>
       </c>
       <c r="H17">
-        <v>23.45494121859137</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.40507395286539</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.587207309085123</v>
       </c>
       <c r="K17">
-        <v>22.1022564619655</v>
+        <v>23.34862149317265</v>
       </c>
       <c r="L17">
-        <v>19.0337630997822</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.32945661452169</v>
+      </c>
+      <c r="N17">
+        <v>13.77562907514461</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.09966170478285</v>
+        <v>26.39233685482699</v>
       </c>
       <c r="C18">
-        <v>16.65128878593873</v>
+        <v>18.29542878191104</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.37333428922592</v>
+        <v>7.609816519263394</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>45.78428052793894</v>
       </c>
       <c r="G18">
-        <v>22.53042103057321</v>
+        <v>2.050062935652579</v>
       </c>
       <c r="H18">
-        <v>23.23162980034409</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.29348005011685</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.597652190261235</v>
       </c>
       <c r="K18">
-        <v>21.81464410262049</v>
+        <v>23.02300989454346</v>
       </c>
       <c r="L18">
-        <v>18.77079684598919</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.08063027914551</v>
+      </c>
+      <c r="N18">
+        <v>13.8127101271705</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.98489272049598</v>
+        <v>26.26557409821858</v>
       </c>
       <c r="C19">
-        <v>16.57441732127496</v>
+        <v>18.20649345308825</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.29333872225242</v>
+        <v>7.595891824212011</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>45.62723678846128</v>
       </c>
       <c r="G19">
-        <v>22.43608435961989</v>
+        <v>2.05110046579387</v>
       </c>
       <c r="H19">
-        <v>23.15650243363464</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.25634571654984</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.601243094877019</v>
       </c>
       <c r="K19">
-        <v>21.71668664654304</v>
+        <v>22.91218465007085</v>
       </c>
       <c r="L19">
-        <v>18.68130710932922</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.99588737302719</v>
+      </c>
+      <c r="N19">
+        <v>13.82539463557057</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.49857466033114</v>
+        <v>26.83344366133755</v>
       </c>
       <c r="C20">
-        <v>16.91867360508703</v>
+        <v>18.60495636790099</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.65178093495561</v>
+        <v>7.658587815549326</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>46.33392517305589</v>
       </c>
       <c r="G20">
-        <v>22.86146443915798</v>
+        <v>2.046433042354922</v>
       </c>
       <c r="H20">
-        <v>23.49650151249812</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.42603873382042</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.585300388753193</v>
       </c>
       <c r="K20">
-        <v>22.15521472193674</v>
+        <v>23.40861234624462</v>
       </c>
       <c r="L20">
-        <v>19.08221867795922</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.37527534942857</v>
+      </c>
+      <c r="N20">
+        <v>13.76882862666648</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17680679318153</v>
+        <v>28.69784814904324</v>
       </c>
       <c r="C21">
-        <v>18.04698303622815</v>
+        <v>19.91425090957992</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.83018175527451</v>
+        <v>7.869751904324386</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>48.70834792210315</v>
       </c>
       <c r="G21">
-        <v>24.30639491201937</v>
+        <v>2.03075322359026</v>
       </c>
       <c r="H21">
-        <v>24.67331831987299</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.0430584319004</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.535733326598226</v>
       </c>
       <c r="K21">
-        <v>23.58953606629832</v>
+        <v>25.03777200263697</v>
       </c>
       <c r="L21">
-        <v>20.39892631813823</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.61649956980914</v>
+      </c>
+      <c r="N21">
+        <v>13.58836548304912</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.23963037011647</v>
+        <v>29.88591353841784</v>
       </c>
       <c r="C22">
-        <v>18.76451314690061</v>
+        <v>20.7496096596753</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.58252677864506</v>
+        <v>8.00808510933822</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>50.26120817883377</v>
       </c>
       <c r="G22">
-        <v>25.29458678987933</v>
+        <v>2.020473469484477</v>
       </c>
       <c r="H22">
-        <v>25.46944203958481</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.48330915704414</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.506592170139175</v>
       </c>
       <c r="K22">
-        <v>24.49916878655844</v>
+        <v>26.07552712681275</v>
       </c>
       <c r="L22">
-        <v>21.23850651448916</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.40395278502447</v>
+      </c>
+      <c r="N22">
+        <v>13.47833345935109</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6753878617005</v>
+        <v>29.25446422691544</v>
       </c>
       <c r="C23">
-        <v>18.38328821604891</v>
+        <v>20.30551138857705</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.18251202006532</v>
+        <v>7.934226517770431</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>49.43223527003766</v>
       </c>
       <c r="G23">
-        <v>24.75147702836144</v>
+        <v>2.025965226938765</v>
       </c>
       <c r="H23">
-        <v>25.04196696268714</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.24481778427618</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.521828514060624</v>
       </c>
       <c r="K23">
-        <v>24.01613039042578</v>
+        <v>25.52399705663654</v>
       </c>
       <c r="L23">
-        <v>20.79221393379975</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19.98576717806345</v>
+      </c>
+      <c r="N23">
+        <v>13.5362821818103</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47054869893706</v>
+        <v>26.80242764265508</v>
       </c>
       <c r="C24">
-        <v>16.8998782791479</v>
+        <v>18.58318948899648</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.63219808402804</v>
+        <v>7.655142711656021</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>46.29511870757343</v>
       </c>
       <c r="G24">
-        <v>22.83804791439813</v>
+        <v>2.046689267587638</v>
       </c>
       <c r="H24">
-        <v>23.47770358709317</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.41654875813602</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.586161483840781</v>
       </c>
       <c r="K24">
-        <v>22.13128304363944</v>
+        <v>23.3815012748906</v>
       </c>
       <c r="L24">
-        <v>19.06032037520161</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.35456991646617</v>
+      </c>
+      <c r="N24">
+        <v>13.77190064939141</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.93678687288814</v>
+        <v>24.01435303451357</v>
       </c>
       <c r="C25">
-        <v>15.20672508441072</v>
+        <v>16.62796205461284</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.87414266999022</v>
+        <v>7.355977947748422</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>42.9108026137303</v>
       </c>
       <c r="G25">
-        <v>20.82294725959233</v>
+        <v>2.069113128738384</v>
       </c>
       <c r="H25">
-        <v>21.8986268612335</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.66881116584462</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.667851554593731</v>
       </c>
       <c r="K25">
-        <v>19.97059137392138</v>
+        <v>20.94281860377411</v>
       </c>
       <c r="L25">
-        <v>17.09215523757126</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>16.67554086379236</v>
+      </c>
+      <c r="N25">
+        <v>14.05537887680915</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.82656872634752</v>
+        <v>12.9152450323956</v>
       </c>
       <c r="C2">
-        <v>15.09486103363723</v>
+        <v>7.437976454214408</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.138129305191937</v>
+        <v>24.37480289500279</v>
       </c>
       <c r="F2">
-        <v>40.4184441458059</v>
+        <v>34.80924596314096</v>
       </c>
       <c r="G2">
-        <v>2.085880382354015</v>
+        <v>2.088114263002595</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.20515518243727</v>
       </c>
       <c r="J2">
-        <v>5.737077891731363</v>
+        <v>4.526532546325694</v>
       </c>
       <c r="K2">
-        <v>19.02603587213375</v>
+        <v>11.63807635427444</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.56795051716012</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.28525959601736</v>
+        <v>11.8429752312015</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.43316929825364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.25500016297517</v>
+        <v>12.08745068457969</v>
       </c>
       <c r="C3">
-        <v>13.99351570739011</v>
+        <v>6.996469589152681</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.99258354171609</v>
+        <v>22.91045889227616</v>
       </c>
       <c r="F3">
-        <v>38.73224504828971</v>
+        <v>33.26481725583369</v>
       </c>
       <c r="G3">
-        <v>2.097486062046454</v>
+        <v>2.092362064560006</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.41322215714388</v>
       </c>
       <c r="J3">
-        <v>5.789062686869694</v>
+        <v>4.576864815032202</v>
       </c>
       <c r="K3">
-        <v>17.64658893990935</v>
+        <v>10.95982833887385</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.79920777143929</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.45268045519672</v>
+        <v>12.01284099637525</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.52511480491861</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.30505636232169</v>
+        <v>11.54970290736175</v>
       </c>
       <c r="C4">
-        <v>13.2853895030295</v>
+        <v>6.711207617618024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.904480253273062</v>
+        <v>21.97777694618549</v>
       </c>
       <c r="F4">
-        <v>37.70027686604451</v>
+        <v>32.31057660001932</v>
       </c>
       <c r="G4">
-        <v>2.104755131825889</v>
+        <v>2.095047335888508</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.54980086166856</v>
       </c>
       <c r="J4">
-        <v>5.823320010255002</v>
+        <v>4.609263306626809</v>
       </c>
       <c r="K4">
-        <v>16.75854194754716</v>
+        <v>10.52132683619216</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.3193547729826</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.56079544100405</v>
+        <v>12.11993073307927</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.59412254077341</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.92469905698226</v>
+        <v>11.32314184708075</v>
       </c>
       <c r="C5">
-        <v>12.98865251256095</v>
+        <v>6.591416720425361</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.868932753812112</v>
+        <v>21.58954150712888</v>
       </c>
       <c r="F5">
-        <v>37.28096582480598</v>
+        <v>31.92074812823211</v>
       </c>
       <c r="G5">
-        <v>2.107756494082707</v>
+        <v>2.0961614815086</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.60759177564834</v>
       </c>
       <c r="J5">
-        <v>5.837846974645959</v>
+        <v>4.622839058680532</v>
       </c>
       <c r="K5">
-        <v>16.38614501239425</v>
+        <v>10.33713002442146</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.12205417510253</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.60613660411424</v>
+        <v>12.16428420349095</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.62524897637218</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.86105730917178</v>
+        <v>11.28507293901666</v>
       </c>
       <c r="C6">
-        <v>12.93888207778504</v>
+        <v>6.571312254467976</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.863052718040585</v>
+        <v>21.52459225269393</v>
       </c>
       <c r="F6">
-        <v>37.21142583630099</v>
+        <v>31.85597575149954</v>
       </c>
       <c r="G6">
-        <v>2.108257320568916</v>
+        <v>2.096347698814768</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.61731446871871</v>
       </c>
       <c r="J6">
-        <v>5.840292829475828</v>
+        <v>4.625115766869742</v>
       </c>
       <c r="K6">
-        <v>16.32366887004632</v>
+        <v>10.30621340464585</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.08919364462274</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.61374155231421</v>
+        <v>12.1716924948059</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.63059469126729</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.29995926232028</v>
+        <v>11.54667749744874</v>
       </c>
       <c r="C7">
-        <v>13.28142086904591</v>
+        <v>6.709606392570458</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.903999357308313</v>
+        <v>21.97257367688964</v>
       </c>
       <c r="F7">
-        <v>37.69461638424981</v>
+        <v>32.30532240543854</v>
       </c>
       <c r="G7">
-        <v>2.104795446706638</v>
+        <v>2.095062280541042</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.55057171613225</v>
       </c>
       <c r="J7">
-        <v>5.823513657059212</v>
+        <v>4.609444886470732</v>
       </c>
       <c r="K7">
-        <v>16.75356246249261</v>
+        <v>10.51886491164461</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.31670070269707</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.56140179692565</v>
+        <v>12.12052599519175</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.59453035046906</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.29394978254456</v>
+        <v>12.63593042718555</v>
       </c>
       <c r="C8">
-        <v>14.72164183942346</v>
+        <v>7.288695859058619</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.087705189091436</v>
+        <v>23.8770091012976</v>
       </c>
       <c r="F8">
-        <v>39.83654899066008</v>
+        <v>34.27825943488359</v>
       </c>
       <c r="G8">
-        <v>2.089854304843171</v>
+        <v>2.089563203012427</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.27501130817286</v>
       </c>
       <c r="J8">
-        <v>5.754503322278109</v>
+        <v>4.543575261335865</v>
       </c>
       <c r="K8">
-        <v>18.55880769326278</v>
+        <v>11.40881416746493</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.30463053623814</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.34184780083421</v>
+        <v>11.90097263687886</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.46217404017474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.97377205723357</v>
+        <v>14.53895695767406</v>
       </c>
       <c r="C9">
-        <v>17.30051308626631</v>
+        <v>8.31142850626679</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.456441849671647</v>
+        <v>27.33668962649829</v>
       </c>
       <c r="F9">
-        <v>44.05109629357034</v>
+        <v>38.08034401828903</v>
       </c>
       <c r="G9">
-        <v>2.06153174385104</v>
+        <v>2.079367949747925</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.8089389992064</v>
       </c>
       <c r="J9">
-        <v>5.638834758153313</v>
+        <v>4.426401621590976</v>
       </c>
       <c r="K9">
-        <v>21.78241851196607</v>
+        <v>12.97792948848496</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.17269021626873</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.9563632804749</v>
+        <v>11.49203866676098</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.3092728208711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.47860192259629</v>
+        <v>15.79675352149937</v>
       </c>
       <c r="C10">
-        <v>19.05782500130262</v>
+        <v>8.994102787174487</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.730772004101672</v>
+        <v>29.70408298234809</v>
       </c>
       <c r="F10">
-        <v>47.14643317546403</v>
+        <v>40.81217058587598</v>
       </c>
       <c r="G10">
-        <v>2.041069185261825</v>
+        <v>2.072201551136986</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.51849229513756</v>
       </c>
       <c r="J10">
-        <v>5.567650841526193</v>
+        <v>4.347858835335864</v>
       </c>
       <c r="K10">
-        <v>23.97247474491397</v>
+        <v>14.02286854027162</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.805545172485</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.70541613022736</v>
+        <v>11.203998614731</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.27198139390456</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.57885573584758</v>
+        <v>16.33893970837773</v>
       </c>
       <c r="C11">
-        <v>19.83063187136828</v>
+        <v>9.289900543553118</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.856048978923484</v>
+        <v>30.7428705081373</v>
       </c>
       <c r="F11">
-        <v>48.55445464655614</v>
+        <v>42.0386984354695</v>
       </c>
       <c r="G11">
-        <v>2.03177038565168</v>
+        <v>2.06900350516545</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.39935593498544</v>
       </c>
       <c r="J11">
-        <v>5.538761619965647</v>
+        <v>4.313830257681045</v>
       </c>
       <c r="K11">
-        <v>24.93381968791354</v>
+        <v>14.4748997157004</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.53748051495082</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.59961511592222</v>
+        <v>11.07548511132129</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.27356154170409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.99023955411932</v>
+        <v>16.53998045790956</v>
       </c>
       <c r="C12">
-        <v>20.11975732536885</v>
+        <v>9.399809239421693</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.903544435454846</v>
+        <v>31.14369608892308</v>
       </c>
       <c r="F12">
-        <v>49.08779062908026</v>
+        <v>42.50067842516728</v>
       </c>
       <c r="G12">
-        <v>2.028244246339503</v>
+        <v>2.067800673610884</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.35627244696151</v>
       </c>
       <c r="J12">
-        <v>5.52837496405898</v>
+        <v>4.301195735801851</v>
       </c>
       <c r="K12">
-        <v>25.2931942165709</v>
+        <v>14.64273589254181</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.81055121109988</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.56089323959185</v>
+        <v>11.02716866316692</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.27701684861207</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.90186789637205</v>
+        <v>16.4968721289985</v>
       </c>
       <c r="C13">
-        <v>20.05764018956684</v>
+        <v>9.376231646022118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.893313083367137</v>
+        <v>31.05506995843489</v>
       </c>
       <c r="F13">
-        <v>48.97291663361621</v>
+        <v>42.4012946989974</v>
       </c>
       <c r="G13">
-        <v>2.02900399072293</v>
+        <v>2.068059372188013</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.36545814427422</v>
       </c>
       <c r="J13">
-        <v>5.530586416543148</v>
+        <v>4.303905507976181</v>
       </c>
       <c r="K13">
-        <v>25.21599781256646</v>
+        <v>14.60673752921207</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.75191894198079</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.56917044879753</v>
+        <v>11.03755917186395</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.27614256337023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.61280353815366</v>
+        <v>16.35556485820954</v>
       </c>
       <c r="C14">
-        <v>19.85448703077961</v>
+        <v>9.298984833365836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.859955388413454</v>
+        <v>30.77489297797655</v>
       </c>
       <c r="F14">
-        <v>48.59832816121871</v>
+        <v>42.07675611411021</v>
       </c>
       <c r="G14">
-        <v>2.031480425214089</v>
+        <v>2.068904387446479</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.39576973403406</v>
       </c>
       <c r="J14">
-        <v>5.537895697469616</v>
+        <v>4.312785727866754</v>
       </c>
       <c r="K14">
-        <v>24.96347694809519</v>
+        <v>14.4887744929535</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.56002694963984</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.59640163469887</v>
+        <v>11.07150317299796</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.27378745445003</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.43507070867256</v>
+        <v>16.26845478508576</v>
       </c>
       <c r="C15">
-        <v>19.72960129380485</v>
+        <v>9.251395618003679</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.839529841846396</v>
+        <v>30.60721802226582</v>
       </c>
       <c r="F15">
-        <v>48.3689082203484</v>
+        <v>41.87764068066034</v>
       </c>
       <c r="G15">
-        <v>2.032996474607207</v>
+        <v>2.069423029362894</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.41460606735195</v>
       </c>
       <c r="J15">
-        <v>5.542446522920734</v>
+        <v>4.318258072060432</v>
       </c>
       <c r="K15">
-        <v>24.80820436675593</v>
+        <v>14.41608454780552</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.44196104035954</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.61326100219024</v>
+        <v>11.09233988803938</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.27272263717667</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.40593997322924</v>
+        <v>15.76072014979299</v>
       </c>
       <c r="C16">
-        <v>19.00681010989312</v>
+        <v>8.974476249972016</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.722593219794177</v>
+        <v>29.63542943016249</v>
       </c>
       <c r="F16">
-        <v>47.05442492490258</v>
+        <v>40.7316737431216</v>
       </c>
       <c r="G16">
-        <v>2.041676562278511</v>
+        <v>2.072411738363571</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.52655306351434</v>
       </c>
       <c r="J16">
-        <v>5.569613256222286</v>
+        <v>4.350117465895581</v>
       </c>
       <c r="K16">
-        <v>23.90897521634126</v>
+        <v>13.99285914253759</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.75712538606825</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.71251011185828</v>
+        <v>11.21244680815318</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.27226748377203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.76481251540264</v>
+        <v>15.44158662086547</v>
       </c>
       <c r="C17">
-        <v>18.55679195771432</v>
+        <v>8.800827557637032</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.650967779896559</v>
+        <v>29.02950297225856</v>
       </c>
       <c r="F17">
-        <v>46.24808752418769</v>
+        <v>40.02438280178949</v>
       </c>
       <c r="G17">
-        <v>2.046999806746839</v>
+        <v>2.074260598082547</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.598666467721</v>
       </c>
       <c r="J17">
-        <v>5.587207309085123</v>
+        <v>4.370102326155838</v>
       </c>
       <c r="K17">
-        <v>23.34862149317265</v>
+        <v>13.72726027392085</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.32945661452169</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.77562907514461</v>
+        <v>11.28676395197708</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.27687229727163</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.39233685482699</v>
+        <v>15.25520388890323</v>
       </c>
       <c r="C18">
-        <v>18.29542878191104</v>
+        <v>8.699559265481405</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.609816519263394</v>
+        <v>28.67739468766291</v>
       </c>
       <c r="F18">
-        <v>45.78428052793894</v>
+        <v>39.6160480203127</v>
       </c>
       <c r="G18">
-        <v>2.050062935652579</v>
+        <v>2.075329893282984</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.64135604426238</v>
       </c>
       <c r="J18">
-        <v>5.597652190261235</v>
+        <v>4.381756726090099</v>
       </c>
       <c r="K18">
-        <v>23.02300989454346</v>
+        <v>13.57229878293578</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.08063027914551</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.8127101271705</v>
+        <v>11.3297469518574</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.28125472789503</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.26557409821858</v>
+        <v>15.1916114655563</v>
       </c>
       <c r="C19">
-        <v>18.20649345308825</v>
+        <v>8.665032332130414</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.595891824212011</v>
+        <v>28.55755921864782</v>
       </c>
       <c r="F19">
-        <v>45.62723678846128</v>
+        <v>39.4775376137441</v>
       </c>
       <c r="G19">
-        <v>2.05110046579387</v>
+        <v>2.075692969092967</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.65601344663944</v>
       </c>
       <c r="J19">
-        <v>5.601243094877019</v>
+        <v>4.385729933348851</v>
       </c>
       <c r="K19">
-        <v>22.91218465007085</v>
+        <v>13.5194539790902</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.99588737302719</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.82539463557057</v>
+        <v>11.34434148849545</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.28303058782136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.83344366133755</v>
+        <v>15.47585109165481</v>
       </c>
       <c r="C20">
-        <v>18.60495636790099</v>
+        <v>8.819456518077121</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.658587815549326</v>
+        <v>29.09437692543874</v>
       </c>
       <c r="F20">
-        <v>46.33392517305589</v>
+        <v>40.09983373337596</v>
       </c>
       <c r="G20">
-        <v>2.046433042354922</v>
+        <v>2.074063180263221</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.59086332361383</v>
       </c>
       <c r="J20">
-        <v>5.585300388753193</v>
+        <v>4.367958336005646</v>
       </c>
       <c r="K20">
-        <v>23.40861234624462</v>
+        <v>13.75576092494233</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.37527534942857</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.76882862666648</v>
+        <v>11.27882825440181</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.27620128964126</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.69784814904324</v>
+        <v>16.39718587531839</v>
       </c>
       <c r="C21">
-        <v>19.91425090957992</v>
+        <v>9.321731013276882</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.869751904324386</v>
+        <v>30.8551052293538</v>
       </c>
       <c r="F21">
-        <v>48.70834792210315</v>
+        <v>42.17214910977181</v>
       </c>
       <c r="G21">
-        <v>2.03075322359026</v>
+        <v>2.068655969413889</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.38680998381487</v>
       </c>
       <c r="J21">
-        <v>5.535733326598226</v>
+        <v>4.310170511092512</v>
       </c>
       <c r="K21">
-        <v>25.03777200263697</v>
+        <v>14.52351354283545</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.61649956980914</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.58836548304912</v>
+        <v>11.06152363567398</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.27440013985026</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.88591353841784</v>
+        <v>16.97444369134991</v>
       </c>
       <c r="C22">
-        <v>20.7496096596753</v>
+        <v>9.637747600997232</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.00808510933822</v>
+        <v>32.03958439823651</v>
       </c>
       <c r="F22">
-        <v>50.26120817883377</v>
+        <v>43.5120540800483</v>
       </c>
       <c r="G22">
-        <v>2.020473469484477</v>
+        <v>2.065169464838351</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.2653748875329</v>
       </c>
       <c r="J22">
-        <v>5.506592170139175</v>
+        <v>4.273871856180274</v>
       </c>
       <c r="K22">
-        <v>26.07552712681275</v>
+        <v>15.00583816352652</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.40395278502447</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.47833345935109</v>
+        <v>10.92152952687321</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.28996550487731</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.25446422691544</v>
+        <v>16.66861359106457</v>
       </c>
       <c r="C23">
-        <v>20.30551138857705</v>
+        <v>9.470197075856497</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.934226517770431</v>
+        <v>31.40843591370723</v>
       </c>
       <c r="F23">
-        <v>49.43223527003766</v>
+        <v>42.79827756929446</v>
       </c>
       <c r="G23">
-        <v>2.025965226938765</v>
+        <v>2.067026188883931</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.32903751669077</v>
       </c>
       <c r="J23">
-        <v>5.521828514060624</v>
+        <v>4.293108205593776</v>
       </c>
       <c r="K23">
-        <v>25.52399705663654</v>
+        <v>14.75018512848749</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.98576717806345</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.5362821818103</v>
+        <v>10.99606593159429</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.28006247382699</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.80242764265508</v>
+        <v>15.46036918703595</v>
       </c>
       <c r="C24">
-        <v>18.58318948899648</v>
+        <v>8.811038837157911</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.655142711656021</v>
+        <v>29.06505910282025</v>
       </c>
       <c r="F24">
-        <v>46.29511870757343</v>
+        <v>40.06572766187055</v>
       </c>
       <c r="G24">
-        <v>2.046689267587638</v>
+        <v>2.074152412993089</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.59438730408066</v>
       </c>
       <c r="J24">
-        <v>5.586161483840781</v>
+        <v>4.368927121019484</v>
       </c>
       <c r="K24">
-        <v>23.3815012748906</v>
+        <v>13.74288283712876</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.35456991646617</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.77190064939141</v>
+        <v>11.28241518152192</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.27649926224656</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.01435303451357</v>
+        <v>14.04892677010484</v>
       </c>
       <c r="C25">
-        <v>16.62796205461284</v>
+        <v>8.046853754346339</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.355977947748422</v>
+        <v>26.43111150014407</v>
       </c>
       <c r="F25">
-        <v>42.9108026137303</v>
+        <v>37.06136682348804</v>
       </c>
       <c r="G25">
-        <v>2.069113128738384</v>
+        <v>2.08206649142789</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.92642628422563</v>
       </c>
       <c r="J25">
-        <v>5.667851554593731</v>
+        <v>4.456794443933473</v>
       </c>
       <c r="K25">
-        <v>20.94281860377411</v>
+        <v>12.5723894184937</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.67554086379236</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.05537887680915</v>
+        <v>11.60043145269107</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.33820348276785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9152450323956</v>
+        <v>9.191640900518481</v>
       </c>
       <c r="C2">
-        <v>7.437976454214408</v>
+        <v>4.493972008280427</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.37480289500279</v>
+        <v>23.38996292535205</v>
       </c>
       <c r="F2">
-        <v>34.80924596314096</v>
+        <v>40.64414866160764</v>
       </c>
       <c r="G2">
-        <v>2.088114263002595</v>
+        <v>3.634272639075779</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.20515518243727</v>
+        <v>20.19171980009867</v>
       </c>
       <c r="J2">
-        <v>4.526532546325694</v>
+        <v>8.007000425280117</v>
       </c>
       <c r="K2">
-        <v>11.63807635427444</v>
+        <v>9.124514955644681</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.8429752312015</v>
+        <v>17.99883854492609</v>
       </c>
       <c r="O2">
-        <v>13.43316929825364</v>
+        <v>21.58855934395047</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.08745068457969</v>
+        <v>8.893509616035642</v>
       </c>
       <c r="C3">
-        <v>6.996469589152681</v>
+        <v>4.263790301143711</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.91045889227616</v>
+        <v>23.06636014080218</v>
       </c>
       <c r="F3">
-        <v>33.26481725583369</v>
+        <v>40.46166954390527</v>
       </c>
       <c r="G3">
-        <v>2.092362064560006</v>
+        <v>3.635843991346709</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.41322215714388</v>
+        <v>20.28755480560199</v>
       </c>
       <c r="J3">
-        <v>4.576864815032202</v>
+        <v>8.028862278589747</v>
       </c>
       <c r="K3">
-        <v>10.95982833887385</v>
+        <v>8.9262423328263</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.01284099637525</v>
+        <v>18.05221474305369</v>
       </c>
       <c r="O3">
-        <v>13.52511480491861</v>
+        <v>21.67709816221078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.54970290736175</v>
+        <v>8.706502411890128</v>
       </c>
       <c r="C4">
-        <v>6.711207617618024</v>
+        <v>4.115036454442852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.97777694618549</v>
+        <v>22.87114928959364</v>
       </c>
       <c r="F4">
-        <v>32.31057660001932</v>
+        <v>40.36050542258614</v>
       </c>
       <c r="G4">
-        <v>2.095047335888508</v>
+        <v>3.636859314286014</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.54980086166856</v>
+        <v>20.35010670159825</v>
       </c>
       <c r="J4">
-        <v>4.609263306626809</v>
+        <v>8.043084394523515</v>
       </c>
       <c r="K4">
-        <v>10.52132683619216</v>
+        <v>8.803491142628351</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.11993073307927</v>
+        <v>18.08664152811785</v>
       </c>
       <c r="O4">
-        <v>13.59412254077341</v>
+        <v>21.73596123338912</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32314184708075</v>
+        <v>8.62941950243922</v>
       </c>
       <c r="C5">
-        <v>6.591416720425361</v>
+        <v>4.052586378972664</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.58954150712888</v>
+        <v>22.79257077187284</v>
       </c>
       <c r="F5">
-        <v>31.92074812823211</v>
+        <v>40.32204656611562</v>
       </c>
       <c r="G5">
-        <v>2.0961614815086</v>
+        <v>3.637285806598678</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.60759177564834</v>
+        <v>20.37652987426864</v>
       </c>
       <c r="J5">
-        <v>4.622839058680532</v>
+        <v>8.049081331312946</v>
       </c>
       <c r="K5">
-        <v>10.33713002442146</v>
+        <v>8.753283695907772</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.16428420349095</v>
+        <v>18.10108763808136</v>
       </c>
       <c r="O5">
-        <v>13.62524897637218</v>
+        <v>21.76107802671067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28507293901666</v>
+        <v>8.616570679251273</v>
       </c>
       <c r="C6">
-        <v>6.571312254467976</v>
+        <v>4.042107108440769</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.52459225269393</v>
+        <v>22.7795843074129</v>
       </c>
       <c r="F6">
-        <v>31.85597575149954</v>
+        <v>40.31582840102998</v>
       </c>
       <c r="G6">
-        <v>2.096347698814768</v>
+        <v>3.637357395954019</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.61731446871871</v>
+        <v>20.38097376423365</v>
       </c>
       <c r="J6">
-        <v>4.625115766869742</v>
+        <v>8.050089289427513</v>
       </c>
       <c r="K6">
-        <v>10.30621340464585</v>
+        <v>8.744937652306184</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.1716924948059</v>
+        <v>18.1035116170285</v>
       </c>
       <c r="O6">
-        <v>13.63059469126729</v>
+        <v>21.76531682111009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.54667749744874</v>
+        <v>8.705466228362333</v>
       </c>
       <c r="C7">
-        <v>6.709606392570458</v>
+        <v>4.11420159661355</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.97257367688964</v>
+        <v>22.87008549353567</v>
       </c>
       <c r="F7">
-        <v>32.30532240543854</v>
+        <v>40.35997551466182</v>
       </c>
       <c r="G7">
-        <v>2.095062280541042</v>
+        <v>3.636865014473577</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.55057171613225</v>
+        <v>20.35045927678188</v>
       </c>
       <c r="J7">
-        <v>4.609444886470732</v>
+        <v>8.043164455641108</v>
       </c>
       <c r="K7">
-        <v>10.51886491164461</v>
+        <v>8.802814685149736</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.12052599519175</v>
+        <v>18.08683466386452</v>
       </c>
       <c r="O7">
-        <v>13.59453035046906</v>
+        <v>21.73629539603318</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.63593042718555</v>
+        <v>9.089733668831185</v>
       </c>
       <c r="C8">
-        <v>7.288695859058619</v>
+        <v>4.416164271543193</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.8770091012976</v>
+        <v>23.27771983014616</v>
       </c>
       <c r="F8">
-        <v>34.27825943488359</v>
+        <v>40.57899167743319</v>
       </c>
       <c r="G8">
-        <v>2.089563203012427</v>
+        <v>3.63480398273782</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.27501130817286</v>
+        <v>20.22399403347995</v>
       </c>
       <c r="J8">
-        <v>4.543575261335865</v>
+        <v>8.014372850892844</v>
       </c>
       <c r="K8">
-        <v>11.40881416746493</v>
+        <v>9.056400954908451</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.90097263687886</v>
+        <v>18.01690012503799</v>
       </c>
       <c r="O8">
-        <v>13.46217404017474</v>
+        <v>21.61815242728408</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.53895695767406</v>
+        <v>9.807212276189089</v>
       </c>
       <c r="C9">
-        <v>8.31142850626679</v>
+        <v>4.948234104331874</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.33668962649829</v>
+        <v>24.10044947590739</v>
       </c>
       <c r="F9">
-        <v>38.08034401828903</v>
+        <v>41.09325760072023</v>
       </c>
       <c r="G9">
-        <v>2.079367949747925</v>
+        <v>3.631161232002963</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.8089389992064</v>
+        <v>20.00541676941592</v>
       </c>
       <c r="J9">
-        <v>4.426401621590976</v>
+        <v>7.964231521688066</v>
       </c>
       <c r="K9">
-        <v>12.97792948848496</v>
+        <v>9.54276705133414</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.49203866676098</v>
+        <v>17.89282820145641</v>
       </c>
       <c r="O9">
-        <v>13.3092728208711</v>
+        <v>21.42226463696993</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.79675352149937</v>
+        <v>10.3067430795156</v>
       </c>
       <c r="C10">
-        <v>8.994102787174487</v>
+        <v>5.3012962633359</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.70408298234809</v>
+        <v>24.71339677445342</v>
       </c>
       <c r="F10">
-        <v>40.81217058587598</v>
+        <v>41.52044279151271</v>
       </c>
       <c r="G10">
-        <v>2.072201551136986</v>
+        <v>3.628725547152997</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.51849229513756</v>
+        <v>19.86275391352352</v>
       </c>
       <c r="J10">
-        <v>4.347858835335864</v>
+        <v>7.931217611957712</v>
       </c>
       <c r="K10">
-        <v>14.02286854027162</v>
+        <v>9.889784270186167</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.203998614731</v>
+        <v>17.80956823868593</v>
       </c>
       <c r="O10">
-        <v>13.27198139390456</v>
+        <v>21.30028178261236</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.33893970837773</v>
+        <v>10.52700131301659</v>
       </c>
       <c r="C11">
-        <v>9.289900543553118</v>
+        <v>5.453521842105197</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.7428705081373</v>
+        <v>24.99287597020901</v>
       </c>
       <c r="F11">
-        <v>42.0386984354695</v>
+        <v>41.72492605853165</v>
       </c>
       <c r="G11">
-        <v>2.06900350516545</v>
+        <v>3.627669201394856</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.39935593498544</v>
+        <v>19.80174426091695</v>
       </c>
       <c r="J11">
-        <v>4.313830257681045</v>
+        <v>7.917023546496795</v>
       </c>
       <c r="K11">
-        <v>14.4748997157004</v>
+        <v>10.04470460812652</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.07548511132129</v>
+        <v>17.77339041174816</v>
       </c>
       <c r="O11">
-        <v>13.27356154170409</v>
+        <v>21.24957714669923</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.53998045790956</v>
+        <v>10.60933225672372</v>
       </c>
       <c r="C12">
-        <v>9.399809239421693</v>
+        <v>5.509949760732921</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.14369608892308</v>
+        <v>25.09870158580463</v>
       </c>
       <c r="F12">
-        <v>42.50067842516728</v>
+        <v>41.80376573306507</v>
       </c>
       <c r="G12">
-        <v>2.067800673610884</v>
+        <v>3.627276578275172</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.35627244696151</v>
+        <v>19.77920079092949</v>
       </c>
       <c r="J12">
-        <v>4.301195735801851</v>
+        <v>7.9117667080224</v>
       </c>
       <c r="K12">
-        <v>14.64273589254181</v>
+        <v>10.10289226828995</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.02716866316692</v>
+        <v>17.75993380222985</v>
       </c>
       <c r="O12">
-        <v>13.27701684861207</v>
+        <v>21.23106700821796</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.4968721289985</v>
+        <v>10.59164973650419</v>
       </c>
       <c r="C13">
-        <v>9.376231646022118</v>
+        <v>5.497851254054962</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.05506995843489</v>
+        <v>25.07591202682934</v>
       </c>
       <c r="F13">
-        <v>42.4012946989974</v>
+        <v>41.78672454154695</v>
       </c>
       <c r="G13">
-        <v>2.068059372188013</v>
+        <v>3.627360808501239</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.36545814427422</v>
+        <v>19.78403103669574</v>
       </c>
       <c r="J13">
-        <v>4.303905507976181</v>
+        <v>7.912893613374153</v>
       </c>
       <c r="K13">
-        <v>14.60673752921207</v>
+        <v>10.09038257179413</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.03755917186395</v>
+        <v>17.76282112484388</v>
       </c>
       <c r="O13">
-        <v>13.27614256337023</v>
+        <v>21.23502274479038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.35556485820954</v>
+        <v>10.53379667992386</v>
       </c>
       <c r="C14">
-        <v>9.298984833365836</v>
+        <v>5.458188636836732</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.77489297797655</v>
+        <v>25.00158301331441</v>
       </c>
       <c r="F14">
-        <v>42.07675611411021</v>
+        <v>41.7313843805947</v>
       </c>
       <c r="G14">
-        <v>2.068904387446479</v>
+        <v>3.62763675211368</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.39576973403406</v>
+        <v>19.79987837905448</v>
       </c>
       <c r="J14">
-        <v>4.312785727866754</v>
+        <v>7.916588697463141</v>
       </c>
       <c r="K14">
-        <v>14.4887744929535</v>
+        <v>10.04950160711747</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.07150317299796</v>
+        <v>17.7722784607561</v>
       </c>
       <c r="O14">
-        <v>13.27378745445003</v>
+        <v>21.2480404520039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26845478508576</v>
+        <v>10.49821787293294</v>
       </c>
       <c r="C15">
-        <v>9.251395618003679</v>
+        <v>5.433735421069963</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.60721802226582</v>
+        <v>24.95605049719573</v>
       </c>
       <c r="F15">
-        <v>41.87764068066034</v>
+        <v>41.69766842688604</v>
       </c>
       <c r="G15">
-        <v>2.069423029362894</v>
+        <v>3.627806737134727</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.41460606735195</v>
+        <v>19.80965821851076</v>
       </c>
       <c r="J15">
-        <v>4.318258072060432</v>
+        <v>7.918867418612684</v>
       </c>
       <c r="K15">
-        <v>14.41608454780552</v>
+        <v>10.02439712070629</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.09233988803938</v>
+        <v>17.7781029890329</v>
       </c>
       <c r="O15">
-        <v>13.27272263717667</v>
+        <v>21.25610418179539</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76072014979299</v>
+        <v>10.29220184957793</v>
       </c>
       <c r="C16">
-        <v>8.974476249972016</v>
+        <v>5.291178252284502</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.63542943016249</v>
+        <v>24.69513655087366</v>
       </c>
       <c r="F16">
-        <v>40.7316737431216</v>
+        <v>41.50727912244486</v>
       </c>
       <c r="G16">
-        <v>2.072411738363571</v>
+        <v>3.628795618229145</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.52655306351434</v>
+        <v>19.86681931644109</v>
       </c>
       <c r="J16">
-        <v>4.350117465895581</v>
+        <v>7.932161779945719</v>
       </c>
       <c r="K16">
-        <v>13.99285914253759</v>
+        <v>9.879595955441484</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.21244680815318</v>
+        <v>17.81196662161056</v>
       </c>
       <c r="O16">
-        <v>13.27226748377203</v>
+        <v>21.3036919601653</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44158662086547</v>
+        <v>10.16397568606162</v>
       </c>
       <c r="C17">
-        <v>8.800827557637032</v>
+        <v>5.201567966036068</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.02950297225856</v>
+        <v>24.53516791343556</v>
       </c>
       <c r="F17">
-        <v>40.02438280178949</v>
+        <v>41.39304485316745</v>
       </c>
       <c r="G17">
-        <v>2.074260598082547</v>
+        <v>3.629415469940373</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.598666467721</v>
+        <v>19.90288198739287</v>
       </c>
       <c r="J17">
-        <v>4.370102326155838</v>
+        <v>7.940528259018278</v>
       </c>
       <c r="K17">
-        <v>13.72726027392085</v>
+        <v>9.789972179140054</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.28676395197708</v>
+        <v>17.83317496036539</v>
       </c>
       <c r="O17">
-        <v>13.27687229727163</v>
+        <v>21.33411302457473</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.25520388890323</v>
+        <v>10.08957008995196</v>
       </c>
       <c r="C18">
-        <v>8.699559265481405</v>
+        <v>5.149237805319107</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.67739468766291</v>
+        <v>24.44322487488223</v>
       </c>
       <c r="F18">
-        <v>39.6160480203127</v>
+        <v>41.32829954171643</v>
       </c>
       <c r="G18">
-        <v>2.075329893282984</v>
+        <v>3.629776856848722</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.64135604426238</v>
+        <v>19.92399024776353</v>
       </c>
       <c r="J18">
-        <v>4.381756726090099</v>
+        <v>7.945418028575121</v>
       </c>
       <c r="K18">
-        <v>13.57229878293578</v>
+        <v>9.738149294592278</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.3297469518574</v>
+        <v>17.84553327331408</v>
       </c>
       <c r="O18">
-        <v>13.28125472789503</v>
+        <v>21.35206075203977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.1916114655563</v>
+        <v>10.06426776635128</v>
       </c>
       <c r="C19">
-        <v>8.665032332130414</v>
+        <v>5.13138463276045</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.55755921864782</v>
+        <v>24.41210908404162</v>
       </c>
       <c r="F19">
-        <v>39.4775376137441</v>
+        <v>41.30654423358429</v>
       </c>
       <c r="G19">
-        <v>2.075692969092967</v>
+        <v>3.629900052862106</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.65601344663944</v>
+        <v>19.93119998533213</v>
       </c>
       <c r="J19">
-        <v>4.385729933348851</v>
+        <v>7.947086958190522</v>
       </c>
       <c r="K19">
-        <v>13.5194539790902</v>
+        <v>9.720557681684069</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.34434148849545</v>
+        <v>17.84974506738706</v>
       </c>
       <c r="O19">
-        <v>13.28303058782136</v>
+        <v>21.358214816996</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.47585109165481</v>
+        <v>10.17769374345185</v>
       </c>
       <c r="C20">
-        <v>8.819456518077121</v>
+        <v>5.211188848950283</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.09437692543874</v>
+        <v>24.55219067828963</v>
       </c>
       <c r="F20">
-        <v>40.09983373337596</v>
+        <v>41.40510639192561</v>
       </c>
       <c r="G20">
-        <v>2.074063180263221</v>
+        <v>3.629348982464629</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.59086332361383</v>
+        <v>19.89900517556976</v>
       </c>
       <c r="J20">
-        <v>4.367958336005646</v>
+        <v>7.939629605194083</v>
       </c>
       <c r="K20">
-        <v>13.75576092494233</v>
+        <v>9.799541513488075</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.27882825440181</v>
+        <v>17.8309007608944</v>
       </c>
       <c r="O20">
-        <v>13.27620128964126</v>
+        <v>21.33082802493271</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.39718587531839</v>
+        <v>10.55081926422343</v>
       </c>
       <c r="C21">
-        <v>9.321731013276882</v>
+        <v>5.469871601421106</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.8551052293538</v>
+        <v>25.02341622335177</v>
       </c>
       <c r="F21">
-        <v>42.17214910977181</v>
+        <v>41.74760140453246</v>
       </c>
       <c r="G21">
-        <v>2.068655969413889</v>
+        <v>3.627555500455789</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.38680998381487</v>
+        <v>19.79520844053754</v>
       </c>
       <c r="J21">
-        <v>4.310170511092512</v>
+        <v>7.915500158104466</v>
       </c>
       <c r="K21">
-        <v>14.52351354283545</v>
+        <v>10.06152270766491</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.06152363567398</v>
+        <v>17.76949402052259</v>
       </c>
       <c r="O21">
-        <v>13.27440013985026</v>
+        <v>21.24419807394434</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.97444369134991</v>
+        <v>10.78837836879904</v>
       </c>
       <c r="C22">
-        <v>9.637747600997232</v>
+        <v>5.631841141336874</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.03958439823651</v>
+        <v>25.33130354281135</v>
       </c>
       <c r="F22">
-        <v>43.5120540800483</v>
+        <v>41.97961173923383</v>
       </c>
       <c r="G22">
-        <v>2.065169464838351</v>
+        <v>3.626426426338276</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.2653748875329</v>
+        <v>19.73063305846579</v>
       </c>
       <c r="J22">
-        <v>4.273871856180274</v>
+        <v>7.900418651380862</v>
       </c>
       <c r="K22">
-        <v>15.00583816352652</v>
+        <v>10.22993781035975</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.92152952687321</v>
+        <v>17.73077798748693</v>
       </c>
       <c r="O22">
-        <v>13.28996550487731</v>
+        <v>21.19160688373045</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.66861359106457</v>
+        <v>10.66218682414924</v>
       </c>
       <c r="C23">
-        <v>9.470197075856497</v>
+        <v>5.546047058222039</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.40843591370723</v>
+        <v>25.1670185021738</v>
       </c>
       <c r="F23">
-        <v>42.79827756929446</v>
+        <v>41.85505442748968</v>
       </c>
       <c r="G23">
-        <v>2.067026188883931</v>
+        <v>3.627025105510059</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.32903751669077</v>
+        <v>19.76479955000318</v>
       </c>
       <c r="J23">
-        <v>4.293108205593776</v>
+        <v>7.908405057395103</v>
       </c>
       <c r="K23">
-        <v>14.75018512848749</v>
+        <v>10.14032518640628</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.99606593159429</v>
+        <v>17.75131213591548</v>
       </c>
       <c r="O23">
-        <v>13.28006247382699</v>
+        <v>21.21930657897666</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.46036918703595</v>
+        <v>10.17149394293355</v>
       </c>
       <c r="C24">
-        <v>8.811038837157911</v>
+        <v>5.206841776203446</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.06505910282025</v>
+        <v>24.54449460054567</v>
       </c>
       <c r="F24">
-        <v>40.06572766187055</v>
+        <v>41.39965047079481</v>
       </c>
       <c r="G24">
-        <v>2.074152412993089</v>
+        <v>3.629379025794426</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.59438730408066</v>
+        <v>19.90075671300713</v>
       </c>
       <c r="J24">
-        <v>4.368927121019484</v>
+        <v>7.940035638085169</v>
       </c>
       <c r="K24">
-        <v>13.74288283712876</v>
+        <v>9.795216138250801</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.28241518152192</v>
+        <v>17.83192841131194</v>
       </c>
       <c r="O24">
-        <v>13.27649926224656</v>
+        <v>21.33231174599161</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.04892677010484</v>
+        <v>9.617593277695551</v>
       </c>
       <c r="C25">
-        <v>8.046853754346339</v>
+        <v>4.810871016263406</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.43111150014407</v>
+        <v>23.87597357361232</v>
       </c>
       <c r="F25">
-        <v>37.06136682348804</v>
+        <v>40.94528474575171</v>
       </c>
       <c r="G25">
-        <v>2.08206649142789</v>
+        <v>3.632104249659541</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.92642628422563</v>
+        <v>20.06139923756215</v>
       </c>
       <c r="J25">
-        <v>4.456794443933473</v>
+        <v>7.977122436108945</v>
       </c>
       <c r="K25">
-        <v>12.5723894184937</v>
+        <v>9.412751720117916</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.60043145269107</v>
+        <v>17.92500124663307</v>
       </c>
       <c r="O25">
-        <v>13.33820348276785</v>
+        <v>21.47141380373255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.191640900518481</v>
+        <v>12.91524503239559</v>
       </c>
       <c r="C2">
-        <v>4.493972008280427</v>
+        <v>7.437976454214444</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.38996292535205</v>
+        <v>24.37480289500278</v>
       </c>
       <c r="F2">
-        <v>40.64414866160764</v>
+        <v>34.80924596314105</v>
       </c>
       <c r="G2">
-        <v>3.634272639075779</v>
+        <v>2.088114263002597</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.19171980009867</v>
+        <v>12.20515518243734</v>
       </c>
       <c r="J2">
-        <v>8.007000425280117</v>
+        <v>4.526532546325635</v>
       </c>
       <c r="K2">
-        <v>9.124514955644681</v>
+        <v>11.63807635427444</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.99883854492609</v>
+        <v>11.8429752312015</v>
       </c>
       <c r="O2">
-        <v>21.58855934395047</v>
+        <v>13.43316929825366</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.893509616035642</v>
+        <v>12.08745068457968</v>
       </c>
       <c r="C3">
-        <v>4.263790301143711</v>
+        <v>6.996469589152801</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.06636014080218</v>
+        <v>22.91045889227614</v>
       </c>
       <c r="F3">
-        <v>40.46166954390527</v>
+        <v>33.26481725583372</v>
       </c>
       <c r="G3">
-        <v>3.635843991346709</v>
+        <v>2.092362064559738</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.28755480560199</v>
+        <v>12.41322215714391</v>
       </c>
       <c r="J3">
-        <v>8.028862278589747</v>
+        <v>4.576864815032106</v>
       </c>
       <c r="K3">
-        <v>8.9262423328263</v>
+        <v>10.95982833887384</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.05221474305369</v>
+        <v>12.01284099637528</v>
       </c>
       <c r="O3">
-        <v>21.67709816221078</v>
+        <v>13.52511480491863</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.706502411890128</v>
+        <v>11.5497029073617</v>
       </c>
       <c r="C4">
-        <v>4.115036454442852</v>
+        <v>6.711207617618147</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.87114928959364</v>
+        <v>21.97777694618552</v>
       </c>
       <c r="F4">
-        <v>40.36050542258614</v>
+        <v>32.31057660001942</v>
       </c>
       <c r="G4">
-        <v>3.636859314286014</v>
+        <v>2.095047335888508</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.35010670159825</v>
+        <v>12.54980086166868</v>
       </c>
       <c r="J4">
-        <v>8.043084394523515</v>
+        <v>4.609263306626807</v>
       </c>
       <c r="K4">
-        <v>8.803491142628351</v>
+        <v>10.52132683619217</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.08664152811785</v>
+        <v>12.11993073307933</v>
       </c>
       <c r="O4">
-        <v>21.73596123338912</v>
+        <v>13.59412254077349</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.62941950243922</v>
+        <v>11.32314184708075</v>
       </c>
       <c r="C5">
-        <v>4.052586378972664</v>
+        <v>6.591416720425417</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.79257077187284</v>
+        <v>21.58954150712882</v>
       </c>
       <c r="F5">
-        <v>40.32204656611562</v>
+        <v>31.92074812823202</v>
       </c>
       <c r="G5">
-        <v>3.637285806598678</v>
+        <v>2.096161481508735</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.37652987426864</v>
+        <v>12.60759177564832</v>
       </c>
       <c r="J5">
-        <v>8.049081331312946</v>
+        <v>4.622839058680602</v>
       </c>
       <c r="K5">
-        <v>8.753283695907772</v>
+        <v>10.33713002442148</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.10108763808136</v>
+        <v>12.16428420349088</v>
       </c>
       <c r="O5">
-        <v>21.76107802671067</v>
+        <v>13.6252489763721</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.616570679251273</v>
+        <v>11.28507293901676</v>
       </c>
       <c r="C6">
-        <v>4.042107108440769</v>
+        <v>6.571312254468116</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.7795843074129</v>
+        <v>21.52459225269393</v>
       </c>
       <c r="F6">
-        <v>40.31582840102998</v>
+        <v>31.85597575149948</v>
       </c>
       <c r="G6">
-        <v>3.637357395954019</v>
+        <v>2.096347698815037</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.38097376423365</v>
+        <v>12.61731446871853</v>
       </c>
       <c r="J6">
-        <v>8.050089289427513</v>
+        <v>4.625115766869643</v>
       </c>
       <c r="K6">
-        <v>8.744937652306184</v>
+        <v>10.30621340464596</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.1035116170285</v>
+        <v>12.17169249480582</v>
       </c>
       <c r="O6">
-        <v>21.76531682111009</v>
+        <v>13.63059469126708</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.705466228362333</v>
+        <v>11.54667749744868</v>
       </c>
       <c r="C7">
-        <v>4.11420159661355</v>
+        <v>6.7096063925705</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.87008549353567</v>
+        <v>21.97257367688962</v>
       </c>
       <c r="F7">
-        <v>40.35997551466182</v>
+        <v>32.30532240543857</v>
       </c>
       <c r="G7">
-        <v>3.636865014473577</v>
+        <v>2.095062280541175</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.35045927678188</v>
+        <v>12.55057171613235</v>
       </c>
       <c r="J7">
-        <v>8.043164455641108</v>
+        <v>4.609444886470699</v>
       </c>
       <c r="K7">
-        <v>8.802814685149736</v>
+        <v>10.51886491164463</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.08683466386452</v>
+        <v>12.12052599519179</v>
       </c>
       <c r="O7">
-        <v>21.73629539603318</v>
+        <v>13.5945303504691</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.089733668831185</v>
+        <v>12.63593042718551</v>
       </c>
       <c r="C8">
-        <v>4.416164271543193</v>
+        <v>7.288695859058715</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.27771983014616</v>
+        <v>23.87700910129762</v>
       </c>
       <c r="F8">
-        <v>40.57899167743319</v>
+        <v>34.27825943488355</v>
       </c>
       <c r="G8">
-        <v>3.63480398273782</v>
+        <v>2.089563203012426</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.22399403347995</v>
+        <v>12.27501130817277</v>
       </c>
       <c r="J8">
-        <v>8.014372850892844</v>
+        <v>4.543575261335867</v>
       </c>
       <c r="K8">
-        <v>9.056400954908451</v>
+        <v>11.40881416746492</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.01690012503799</v>
+        <v>11.90097263687879</v>
       </c>
       <c r="O8">
-        <v>21.61815242728408</v>
+        <v>13.46217404017463</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.807212276189089</v>
+        <v>14.53895695767407</v>
       </c>
       <c r="C9">
-        <v>4.948234104331874</v>
+        <v>8.311428506266804</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.10044947590739</v>
+        <v>27.33668962649829</v>
       </c>
       <c r="F9">
-        <v>41.09325760072023</v>
+        <v>38.080344018289</v>
       </c>
       <c r="G9">
-        <v>3.631161232002963</v>
+        <v>2.079367949747791</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.00541676941592</v>
+        <v>11.80893899920631</v>
       </c>
       <c r="J9">
-        <v>7.964231521688066</v>
+        <v>4.426401621590945</v>
       </c>
       <c r="K9">
-        <v>9.54276705133414</v>
+        <v>12.97792948848497</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.89282820145641</v>
+        <v>11.49203866676094</v>
       </c>
       <c r="O9">
-        <v>21.42226463696993</v>
+        <v>13.30927282087101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.3067430795156</v>
+        <v>15.79675352149935</v>
       </c>
       <c r="C10">
-        <v>5.3012962633359</v>
+        <v>8.994102787174597</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.71339677445342</v>
+        <v>29.70408298234805</v>
       </c>
       <c r="F10">
-        <v>41.52044279151271</v>
+        <v>40.81217058587603</v>
       </c>
       <c r="G10">
-        <v>3.628725547152997</v>
+        <v>2.072201551136984</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.86275391352352</v>
+        <v>11.51849229513768</v>
       </c>
       <c r="J10">
-        <v>7.931217611957712</v>
+        <v>4.347858835335863</v>
       </c>
       <c r="K10">
-        <v>9.889784270186167</v>
+        <v>14.02286854027164</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.80956823868593</v>
+        <v>11.20399861473107</v>
       </c>
       <c r="O10">
-        <v>21.30028178261236</v>
+        <v>13.27198139390466</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.52700131301659</v>
+        <v>16.33893970837774</v>
       </c>
       <c r="C11">
-        <v>5.453521842105197</v>
+        <v>9.289900543553058</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.99287597020901</v>
+        <v>30.7428705081373</v>
       </c>
       <c r="F11">
-        <v>41.72492605853165</v>
+        <v>42.03869843546945</v>
       </c>
       <c r="G11">
-        <v>3.627669201394856</v>
+        <v>2.069003505165851</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.80174426091695</v>
+        <v>11.39935593498547</v>
       </c>
       <c r="J11">
-        <v>7.917023546496795</v>
+        <v>4.313830257681012</v>
       </c>
       <c r="K11">
-        <v>10.04470460812652</v>
+        <v>14.47489971570039</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.77339041174816</v>
+        <v>11.07548511132132</v>
       </c>
       <c r="O11">
-        <v>21.24957714669923</v>
+        <v>13.2735615417041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.60933225672372</v>
+        <v>16.53998045790957</v>
       </c>
       <c r="C12">
-        <v>5.509949760732921</v>
+        <v>9.399809239421508</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.09870158580463</v>
+        <v>31.14369608892299</v>
       </c>
       <c r="F12">
-        <v>41.80376573306507</v>
+        <v>42.50067842516729</v>
       </c>
       <c r="G12">
-        <v>3.627276578275172</v>
+        <v>2.067800673610617</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.77920079092949</v>
+        <v>11.35627244696151</v>
       </c>
       <c r="J12">
-        <v>7.9117667080224</v>
+        <v>4.301195735801942</v>
       </c>
       <c r="K12">
-        <v>10.10289226828995</v>
+        <v>14.64273589254179</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.75993380222985</v>
+        <v>11.02716866316688</v>
       </c>
       <c r="O12">
-        <v>21.23106700821796</v>
+        <v>13.2770168486121</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.59164973650419</v>
+        <v>16.49687212899849</v>
       </c>
       <c r="C13">
-        <v>5.497851254054962</v>
+        <v>9.3762316460221</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.07591202682934</v>
+        <v>31.05506995843495</v>
       </c>
       <c r="F13">
-        <v>41.78672454154695</v>
+        <v>42.40129469899745</v>
       </c>
       <c r="G13">
-        <v>3.627360808501239</v>
+        <v>2.068059372188012</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.78403103669574</v>
+        <v>11.3654581442742</v>
       </c>
       <c r="J13">
-        <v>7.912893613374153</v>
+        <v>4.303905507976211</v>
       </c>
       <c r="K13">
-        <v>10.09038257179413</v>
+        <v>14.60673752921207</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.76282112484388</v>
+        <v>11.03755917186392</v>
       </c>
       <c r="O13">
-        <v>21.23502274479038</v>
+        <v>13.27614256337022</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.53379667992386</v>
+        <v>16.35556485820958</v>
       </c>
       <c r="C14">
-        <v>5.458188636836732</v>
+        <v>9.298984833365809</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.00158301331441</v>
+        <v>30.77489297797655</v>
       </c>
       <c r="F14">
-        <v>41.7313843805947</v>
+        <v>42.0767561141102</v>
       </c>
       <c r="G14">
-        <v>3.62763675211368</v>
+        <v>2.068904387446343</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.79987837905448</v>
+        <v>11.39576973403394</v>
       </c>
       <c r="J14">
-        <v>7.916588697463141</v>
+        <v>4.312785727866722</v>
       </c>
       <c r="K14">
-        <v>10.04950160711747</v>
+        <v>14.48877449295354</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.7722784607561</v>
+        <v>11.07150317299786</v>
       </c>
       <c r="O14">
-        <v>21.2480404520039</v>
+        <v>13.27378745444988</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.49821787293294</v>
+        <v>16.26845478508578</v>
       </c>
       <c r="C15">
-        <v>5.433735421069963</v>
+        <v>9.251395618003757</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.95605049719573</v>
+        <v>30.6072180222658</v>
       </c>
       <c r="F15">
-        <v>41.69766842688604</v>
+        <v>41.87764068066032</v>
       </c>
       <c r="G15">
-        <v>3.627806737134727</v>
+        <v>2.06942302936276</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.80965821851076</v>
+        <v>11.41460606735188</v>
       </c>
       <c r="J15">
-        <v>7.918867418612684</v>
+        <v>4.318258072060438</v>
       </c>
       <c r="K15">
-        <v>10.02439712070629</v>
+        <v>14.41608454780554</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.7781029890329</v>
+        <v>11.09233988803934</v>
       </c>
       <c r="O15">
-        <v>21.25610418179539</v>
+        <v>13.27272263717658</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.29220184957793</v>
+        <v>15.76072014979299</v>
       </c>
       <c r="C16">
-        <v>5.291178252284502</v>
+        <v>8.974476249971985</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.69513655087366</v>
+        <v>29.63542943016247</v>
       </c>
       <c r="F16">
-        <v>41.50727912244486</v>
+        <v>40.73167374312165</v>
       </c>
       <c r="G16">
-        <v>3.628795618229145</v>
+        <v>2.072411738363439</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.86681931644109</v>
+        <v>11.52655306351438</v>
       </c>
       <c r="J16">
-        <v>7.932161779945719</v>
+        <v>4.350117465895554</v>
       </c>
       <c r="K16">
-        <v>9.879595955441484</v>
+        <v>13.99285914253758</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.81196662161056</v>
+        <v>11.21244680815317</v>
       </c>
       <c r="O16">
-        <v>21.3036919601653</v>
+        <v>13.27226748377205</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.16397568606162</v>
+        <v>15.44158662086546</v>
       </c>
       <c r="C17">
-        <v>5.201567966036068</v>
+        <v>8.800827557637144</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.53516791343556</v>
+        <v>29.02950297225858</v>
       </c>
       <c r="F17">
-        <v>41.39304485316745</v>
+        <v>40.02438280178951</v>
       </c>
       <c r="G17">
-        <v>3.629415469940373</v>
+        <v>2.074260598082549</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.90288198739287</v>
+        <v>11.59866646772105</v>
       </c>
       <c r="J17">
-        <v>7.940528259018278</v>
+        <v>4.370102326155662</v>
       </c>
       <c r="K17">
-        <v>9.789972179140054</v>
+        <v>13.72726027392085</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.83317496036539</v>
+        <v>11.2867639519771</v>
       </c>
       <c r="O17">
-        <v>21.33411302457473</v>
+        <v>13.27687229727165</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.08957008995196</v>
+        <v>15.25520388890322</v>
       </c>
       <c r="C18">
-        <v>5.149237805319107</v>
+        <v>8.699559265481421</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.44322487488223</v>
+        <v>28.67739468766289</v>
       </c>
       <c r="F18">
-        <v>41.32829954171643</v>
+        <v>39.6160480203127</v>
       </c>
       <c r="G18">
-        <v>3.629776856848722</v>
+        <v>2.075329893282986</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.92399024776353</v>
+        <v>11.64135604426237</v>
       </c>
       <c r="J18">
-        <v>7.945418028575121</v>
+        <v>4.381756726090067</v>
       </c>
       <c r="K18">
-        <v>9.738149294592278</v>
+        <v>13.57229878293576</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.84553327331408</v>
+        <v>11.32974695185734</v>
       </c>
       <c r="O18">
-        <v>21.35206075203977</v>
+        <v>13.28125472789502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.06426776635128</v>
+        <v>15.19161146555632</v>
       </c>
       <c r="C19">
-        <v>5.13138463276045</v>
+        <v>8.665032332130586</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.41210908404162</v>
+        <v>28.55755921864783</v>
       </c>
       <c r="F19">
-        <v>41.30654423358429</v>
+        <v>39.47753761374413</v>
       </c>
       <c r="G19">
-        <v>3.629900052862106</v>
+        <v>2.075692969092966</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.93119998533213</v>
+        <v>11.65601344663946</v>
       </c>
       <c r="J19">
-        <v>7.947086958190522</v>
+        <v>4.385729933348825</v>
       </c>
       <c r="K19">
-        <v>9.720557681684069</v>
+        <v>13.51945397909025</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.84974506738706</v>
+        <v>11.34434148849544</v>
       </c>
       <c r="O19">
-        <v>21.358214816996</v>
+        <v>13.28303058782131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.17769374345185</v>
+        <v>15.47585109165481</v>
       </c>
       <c r="C20">
-        <v>5.211188848950283</v>
+        <v>8.819456518077184</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.55219067828963</v>
+        <v>29.09437692543874</v>
       </c>
       <c r="F20">
-        <v>41.40510639192561</v>
+        <v>40.099833733376</v>
       </c>
       <c r="G20">
-        <v>3.629348982464629</v>
+        <v>2.074063180263221</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.89900517556976</v>
+        <v>11.59086332361387</v>
       </c>
       <c r="J20">
-        <v>7.939629605194083</v>
+        <v>4.367958336005652</v>
       </c>
       <c r="K20">
-        <v>9.799541513488075</v>
+        <v>13.75576092494233</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.8309007608944</v>
+        <v>11.27882825440181</v>
       </c>
       <c r="O20">
-        <v>21.33082802493271</v>
+        <v>13.27620128964128</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.55081926422343</v>
+        <v>16.39718587531844</v>
       </c>
       <c r="C21">
-        <v>5.469871601421106</v>
+        <v>9.321731013276867</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.02341622335177</v>
+        <v>30.85510522935374</v>
       </c>
       <c r="F21">
-        <v>41.74760140453246</v>
+        <v>42.17214910977184</v>
       </c>
       <c r="G21">
-        <v>3.627555500455789</v>
+        <v>2.068655969414157</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.79520844053754</v>
+        <v>11.38680998381488</v>
       </c>
       <c r="J21">
-        <v>7.915500158104466</v>
+        <v>4.310170511092451</v>
       </c>
       <c r="K21">
-        <v>10.06152270766491</v>
+        <v>14.52351354283546</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.76949402052259</v>
+        <v>11.06152363567397</v>
       </c>
       <c r="O21">
-        <v>21.24419807394434</v>
+        <v>13.27440013985027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.78837836879904</v>
+        <v>16.97444369134995</v>
       </c>
       <c r="C22">
-        <v>5.631841141336874</v>
+        <v>9.637747600997141</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.33130354281135</v>
+        <v>32.03958439823661</v>
       </c>
       <c r="F22">
-        <v>41.97961173923383</v>
+        <v>43.51205408004832</v>
       </c>
       <c r="G22">
-        <v>3.626426426338276</v>
+        <v>2.065169464838351</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.73063305846579</v>
+        <v>11.26537488753284</v>
       </c>
       <c r="J22">
-        <v>7.900418651380862</v>
+        <v>4.273871856180338</v>
       </c>
       <c r="K22">
-        <v>10.22993781035975</v>
+        <v>15.00583816352654</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.73077798748693</v>
+        <v>10.92152952687317</v>
       </c>
       <c r="O22">
-        <v>21.19160688373045</v>
+        <v>13.28996550487726</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.66218682414924</v>
+        <v>16.66861359106471</v>
       </c>
       <c r="C23">
-        <v>5.546047058222039</v>
+        <v>9.470197075856529</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.1670185021738</v>
+        <v>31.4084359137072</v>
       </c>
       <c r="F23">
-        <v>41.85505442748968</v>
+        <v>42.79827756929448</v>
       </c>
       <c r="G23">
-        <v>3.627025105510059</v>
+        <v>2.067026188883933</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.76479955000318</v>
+        <v>11.32903751669065</v>
       </c>
       <c r="J23">
-        <v>7.908405057395103</v>
+        <v>4.293108205593774</v>
       </c>
       <c r="K23">
-        <v>10.14032518640628</v>
+        <v>14.75018512848759</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.75131213591548</v>
+        <v>10.99606593159429</v>
       </c>
       <c r="O23">
-        <v>21.21930657897666</v>
+        <v>13.2800624738269</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.17149394293355</v>
+        <v>15.46036918703598</v>
       </c>
       <c r="C24">
-        <v>5.206841776203446</v>
+        <v>8.811038837157833</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.54449460054567</v>
+        <v>29.06505910282022</v>
       </c>
       <c r="F24">
-        <v>41.39965047079481</v>
+        <v>40.06572766187055</v>
       </c>
       <c r="G24">
-        <v>3.629379025794426</v>
+        <v>2.074152412992822</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.90075671300713</v>
+        <v>11.59438730408056</v>
       </c>
       <c r="J24">
-        <v>7.940035638085169</v>
+        <v>4.368927121019484</v>
       </c>
       <c r="K24">
-        <v>9.795216138250801</v>
+        <v>13.74288283712878</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.83192841131194</v>
+        <v>11.28241518152188</v>
       </c>
       <c r="O24">
-        <v>21.33231174599161</v>
+        <v>13.2764992622465</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.617593277695551</v>
+        <v>14.04892677010477</v>
       </c>
       <c r="C25">
-        <v>4.810871016263406</v>
+        <v>8.046853754346211</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.87597357361232</v>
+        <v>26.43111150014406</v>
       </c>
       <c r="F25">
-        <v>40.94528474575171</v>
+        <v>37.06136682348804</v>
       </c>
       <c r="G25">
-        <v>3.632104249659541</v>
+        <v>2.08206649142762</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.06139923756215</v>
+        <v>11.92642628422566</v>
       </c>
       <c r="J25">
-        <v>7.977122436108945</v>
+        <v>4.456794443933503</v>
       </c>
       <c r="K25">
-        <v>9.412751720117916</v>
+        <v>12.57238941849361</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.92500124663307</v>
+        <v>11.60043145269103</v>
       </c>
       <c r="O25">
-        <v>21.47141380373255</v>
+        <v>13.33820348276792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.91524503239559</v>
+        <v>11.80570306796184</v>
       </c>
       <c r="C2">
-        <v>7.437976454214444</v>
+        <v>7.642863350654679</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.37480289500278</v>
+        <v>16.05223677460394</v>
       </c>
       <c r="F2">
-        <v>34.80924596314105</v>
+        <v>33.3468854256642</v>
       </c>
       <c r="G2">
-        <v>2.088114263002597</v>
+        <v>28.27037581091921</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.257800200895279</v>
       </c>
       <c r="I2">
-        <v>12.20515518243734</v>
+        <v>2.929790469797638</v>
       </c>
       <c r="J2">
-        <v>4.526532546325635</v>
+        <v>10.42103686002721</v>
       </c>
       <c r="K2">
-        <v>11.63807635427444</v>
+        <v>15.90422856928756</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.577999007059501</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.86862439993505</v>
       </c>
       <c r="N2">
-        <v>11.8429752312015</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.43316929825366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.83496269253551</v>
+      </c>
+      <c r="P2">
+        <v>13.27143865789565</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.08745068457968</v>
+        <v>11.0339444551021</v>
       </c>
       <c r="C3">
-        <v>6.996469589152801</v>
+        <v>7.156647384112567</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.91045889227614</v>
+        <v>15.20245765005712</v>
       </c>
       <c r="F3">
-        <v>33.26481725583372</v>
+        <v>32.13091748271937</v>
       </c>
       <c r="G3">
-        <v>2.092362064559738</v>
+        <v>27.77894392467593</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.502349891963415</v>
       </c>
       <c r="I3">
-        <v>12.41322215714391</v>
+        <v>3.08791362891494</v>
       </c>
       <c r="J3">
-        <v>4.576864815032106</v>
+        <v>10.41807554805644</v>
       </c>
       <c r="K3">
-        <v>10.95982833887384</v>
+        <v>15.9151519865707</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.523107944126468</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.21420261892313</v>
       </c>
       <c r="N3">
-        <v>12.01284099637528</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.52511480491863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.0732894728119</v>
+      </c>
+      <c r="P3">
+        <v>13.42209490768933</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5497029073617</v>
+        <v>10.5291940660529</v>
       </c>
       <c r="C4">
-        <v>6.711207617618147</v>
+        <v>6.845107275472142</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.97777694618552</v>
+        <v>14.65774237051589</v>
       </c>
       <c r="F4">
-        <v>32.31057660001942</v>
+        <v>31.36752647435286</v>
       </c>
       <c r="G4">
-        <v>2.095047335888508</v>
+        <v>27.48301723630171</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.658029910414683</v>
       </c>
       <c r="I4">
-        <v>12.54980086166868</v>
+        <v>3.189216660005083</v>
       </c>
       <c r="J4">
-        <v>4.609263306626807</v>
+        <v>10.41897681176209</v>
       </c>
       <c r="K4">
-        <v>10.52132683619217</v>
+        <v>15.9251485058957</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.487820852655958</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.789749859653314</v>
       </c>
       <c r="N4">
-        <v>12.11993073307933</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>13.59412254077349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.58589615442024</v>
+      </c>
+      <c r="P4">
+        <v>13.51584470447112</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32314184708075</v>
+        <v>10.30961697952826</v>
       </c>
       <c r="C5">
-        <v>6.591416720425417</v>
+        <v>6.722091743724948</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>21.58954150712882</v>
+        <v>14.43492636429557</v>
       </c>
       <c r="F5">
-        <v>31.92074812823202</v>
+        <v>31.04625212393862</v>
       </c>
       <c r="G5">
-        <v>2.096161481508735</v>
+        <v>27.34726252157882</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.723057550055482</v>
       </c>
       <c r="I5">
-        <v>12.60759177564832</v>
+        <v>3.234417602564826</v>
       </c>
       <c r="J5">
-        <v>4.622839058680602</v>
+        <v>10.41715212836347</v>
       </c>
       <c r="K5">
-        <v>10.33713002442148</v>
+        <v>15.92354914612247</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.472751625414683</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.609824554185678</v>
       </c>
       <c r="N5">
-        <v>12.16428420349088</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>13.6252489763721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.3841411527635</v>
+      </c>
+      <c r="P5">
+        <v>13.55331727105269</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28507293901676</v>
+        <v>10.26523605946413</v>
       </c>
       <c r="C6">
-        <v>6.571312254468116</v>
+        <v>6.710286342010156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.52459225269393</v>
+        <v>14.40345731069908</v>
       </c>
       <c r="F6">
-        <v>31.85597575149948</v>
+        <v>30.98490897178034</v>
       </c>
       <c r="G6">
-        <v>2.096347698815037</v>
+        <v>27.30441183270217</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.734157532835304</v>
       </c>
       <c r="I6">
-        <v>12.61731446871853</v>
+        <v>3.245645587193417</v>
       </c>
       <c r="J6">
-        <v>4.625115766869643</v>
+        <v>10.41339591845134</v>
       </c>
       <c r="K6">
-        <v>10.30621340464596</v>
+        <v>15.91542099923022</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.469875184552045</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.578025408450101</v>
       </c>
       <c r="N6">
-        <v>12.17169249480582</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>13.63059469126708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.35237930031308</v>
+      </c>
+      <c r="P6">
+        <v>13.5582718745378</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.54667749744868</v>
+        <v>10.50640002488203</v>
       </c>
       <c r="C7">
-        <v>6.7096063925705</v>
+        <v>6.866982424653719</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.97257367688962</v>
+        <v>14.670465784941</v>
       </c>
       <c r="F7">
-        <v>32.30532240543857</v>
+        <v>31.34225757342669</v>
       </c>
       <c r="G7">
-        <v>2.095062280541175</v>
+        <v>27.42579130141763</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.659483251975464</v>
       </c>
       <c r="I7">
-        <v>12.55057171613235</v>
+        <v>3.199512695326007</v>
       </c>
       <c r="J7">
-        <v>4.609444886470699</v>
+        <v>10.40943049072294</v>
       </c>
       <c r="K7">
-        <v>10.51886491164463</v>
+        <v>15.90354511956214</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.486680788964054</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.783115329910521</v>
       </c>
       <c r="N7">
-        <v>12.12052599519179</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13.5945303504691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.58861142604783</v>
+      </c>
+      <c r="P7">
+        <v>13.51288771996207</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.63593042718551</v>
+        <v>11.52171121064831</v>
       </c>
       <c r="C8">
-        <v>7.288695859058715</v>
+        <v>7.50668524074511</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.87700910129762</v>
+        <v>15.78351202971981</v>
       </c>
       <c r="F8">
-        <v>34.27825943488355</v>
+        <v>32.90490672288664</v>
       </c>
       <c r="G8">
-        <v>2.089563203012426</v>
+        <v>28.02816237096123</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.341716492017306</v>
       </c>
       <c r="I8">
-        <v>12.27501130817277</v>
+        <v>2.995880602092577</v>
       </c>
       <c r="J8">
-        <v>4.543575261335867</v>
+        <v>10.40694614607311</v>
       </c>
       <c r="K8">
-        <v>11.40881416746492</v>
+        <v>15.87890564508926</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.558229021478265</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.64247069960679</v>
       </c>
       <c r="N8">
-        <v>11.90097263687879</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>13.46217404017463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.58321930842069</v>
+      </c>
+      <c r="P8">
+        <v>13.31880717334573</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.53895695767407</v>
+        <v>13.30069746430575</v>
       </c>
       <c r="C9">
-        <v>8.311428506266804</v>
+        <v>8.620715003368872</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>27.33668962649829</v>
+        <v>17.7539250965587</v>
       </c>
       <c r="F9">
-        <v>38.080344018289</v>
+        <v>35.85607628819602</v>
       </c>
       <c r="G9">
-        <v>2.079367949747791</v>
+        <v>29.34903631829378</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.760521849593201</v>
       </c>
       <c r="I9">
-        <v>11.80893899920631</v>
+        <v>2.613588716763054</v>
       </c>
       <c r="J9">
-        <v>4.426401621590945</v>
+        <v>10.44139870560662</v>
       </c>
       <c r="K9">
-        <v>12.97792948848497</v>
+        <v>15.89629905928289</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.687713840908752</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.15426744383498</v>
       </c>
       <c r="N9">
-        <v>11.49203866676094</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.30927282087101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.36251320018527</v>
+      </c>
+      <c r="P9">
+        <v>12.95318083596097</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.79675352149935</v>
+        <v>14.44738835361414</v>
       </c>
       <c r="C10">
-        <v>8.994102787174597</v>
+        <v>9.361365764094508</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.70408298234805</v>
+        <v>18.77427258901545</v>
       </c>
       <c r="F10">
-        <v>40.81217058587603</v>
+        <v>37.58778661157511</v>
       </c>
       <c r="G10">
-        <v>2.072201551136984</v>
+        <v>30.14894290764034</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.744013177025677</v>
       </c>
       <c r="I10">
-        <v>11.51849229513768</v>
+        <v>2.603990101080466</v>
       </c>
       <c r="J10">
-        <v>4.347858835335863</v>
+        <v>10.44708597694895</v>
       </c>
       <c r="K10">
-        <v>14.02286854027164</v>
+        <v>15.86504753057567</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.766860059267626</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.14082130160765</v>
       </c>
       <c r="N10">
-        <v>11.20399861473107</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.27198139390466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.39953444173793</v>
+      </c>
+      <c r="P10">
+        <v>12.68042391351281</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.33893970837774</v>
+        <v>14.86388014131529</v>
       </c>
       <c r="C11">
-        <v>9.289900543553058</v>
+        <v>9.499149935563969</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.7428705081373</v>
+        <v>16.55863001971238</v>
       </c>
       <c r="F11">
-        <v>42.03869843546945</v>
+        <v>35.57402873938398</v>
       </c>
       <c r="G11">
-        <v>2.069003505165851</v>
+        <v>28.98205585675129</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.694795625598573</v>
       </c>
       <c r="I11">
-        <v>11.39935593498547</v>
+        <v>2.688118229623548</v>
       </c>
       <c r="J11">
-        <v>4.313830257681012</v>
+        <v>10.17780875699279</v>
       </c>
       <c r="K11">
-        <v>14.47489971570039</v>
+        <v>15.37177960185659</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.782999178634951</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.45544792285484</v>
       </c>
       <c r="N11">
-        <v>11.07548511132132</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.2735615417041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.42014893331347</v>
+      </c>
+      <c r="P11">
+        <v>12.50114336505389</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.53998045790957</v>
+        <v>15.00688667500341</v>
       </c>
       <c r="C12">
-        <v>9.399809239421508</v>
+        <v>9.436133923940289</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.14369608892299</v>
+        <v>14.48338109304833</v>
       </c>
       <c r="F12">
-        <v>42.50067842516729</v>
+        <v>33.51779950638251</v>
       </c>
       <c r="G12">
-        <v>2.067800673610617</v>
+        <v>27.88524426674092</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.041292030692059</v>
       </c>
       <c r="I12">
-        <v>11.35627244696151</v>
+        <v>2.702892225414533</v>
       </c>
       <c r="J12">
-        <v>4.301195735801942</v>
+        <v>9.960001354249577</v>
       </c>
       <c r="K12">
-        <v>14.64273589254179</v>
+        <v>14.99242574062004</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.85279359042525</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.52548590820561</v>
       </c>
       <c r="N12">
-        <v>11.02716866316688</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.2770168486121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.36055403865218</v>
+      </c>
+      <c r="P12">
+        <v>12.42445027338522</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.49687212899849</v>
+        <v>14.93007669828766</v>
       </c>
       <c r="C13">
-        <v>9.3762316460221</v>
+        <v>9.240047294212516</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.05506995843495</v>
+        <v>12.37847736540922</v>
       </c>
       <c r="F13">
-        <v>42.40129469899745</v>
+        <v>31.23668624760577</v>
       </c>
       <c r="G13">
-        <v>2.068059372188012</v>
+        <v>26.6807751868037</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.508751863522889</v>
       </c>
       <c r="I13">
-        <v>11.3654581442742</v>
+        <v>2.670726137982026</v>
       </c>
       <c r="J13">
-        <v>4.303905507976211</v>
+        <v>9.753773956031242</v>
       </c>
       <c r="K13">
-        <v>14.60673752921207</v>
+        <v>14.64494557814247</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.961810737209257</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.40895462520544</v>
       </c>
       <c r="N13">
-        <v>11.03755917186392</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.27614256337022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.15375122890337</v>
+      </c>
+      <c r="P13">
+        <v>12.41562766120644</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.35556485820958</v>
+        <v>14.77149539530538</v>
       </c>
       <c r="C14">
-        <v>9.298984833365809</v>
+        <v>9.045501880558092</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.77489297797655</v>
+        <v>10.90622985081269</v>
       </c>
       <c r="F14">
-        <v>42.0767561141102</v>
+        <v>29.51905246759414</v>
       </c>
       <c r="G14">
-        <v>2.068904387446343</v>
+        <v>25.77115401107825</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.538081735636189</v>
       </c>
       <c r="I14">
-        <v>11.39576973403394</v>
+        <v>2.628430965486577</v>
       </c>
       <c r="J14">
-        <v>4.312785727866722</v>
+        <v>9.613036503185304</v>
       </c>
       <c r="K14">
-        <v>14.48877449295354</v>
+        <v>14.41281097474514</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.062075439719385</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.24067264742115</v>
       </c>
       <c r="N14">
-        <v>11.07150317299786</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.27378745444988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.23039725056551</v>
+      </c>
+      <c r="P14">
+        <v>12.4405897419984</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26845478508578</v>
+        <v>14.67905623417289</v>
       </c>
       <c r="C15">
-        <v>9.251395618003757</v>
+        <v>8.975768347479923</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.6072180222658</v>
+        <v>10.54058928019295</v>
       </c>
       <c r="F15">
-        <v>41.87764068066032</v>
+        <v>29.04633351118474</v>
       </c>
       <c r="G15">
-        <v>2.06942302936276</v>
+        <v>25.51040603872836</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.777380654725238</v>
       </c>
       <c r="I15">
-        <v>11.41460606735188</v>
+        <v>2.609617256845548</v>
       </c>
       <c r="J15">
-        <v>4.318258072060438</v>
+        <v>9.578744152301399</v>
       </c>
       <c r="K15">
-        <v>14.41608454780554</v>
+        <v>14.35677712576943</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.085590666244845</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.15773896965662</v>
       </c>
       <c r="N15">
-        <v>11.09233988803934</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.27272263717658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.97410347992889</v>
+      </c>
+      <c r="P15">
+        <v>12.45902905698912</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76072014979299</v>
+        <v>14.21251389289929</v>
       </c>
       <c r="C16">
-        <v>8.974476249971985</v>
+        <v>8.70746856477491</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.63542943016247</v>
+        <v>10.41076276376475</v>
       </c>
       <c r="F16">
-        <v>40.73167374312165</v>
+        <v>28.66331556140809</v>
       </c>
       <c r="G16">
-        <v>2.072411738363439</v>
+        <v>25.34267947610551</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.58059232695834</v>
       </c>
       <c r="I16">
-        <v>11.52655306351438</v>
+        <v>2.511491063178559</v>
       </c>
       <c r="J16">
-        <v>4.350117465895554</v>
+        <v>9.611592658264248</v>
       </c>
       <c r="K16">
-        <v>13.99285914253758</v>
+        <v>14.42834906501177</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.025101301800788</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.76772025942101</v>
       </c>
       <c r="N16">
-        <v>11.21244680815317</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.27226748377205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.71125079557206</v>
+      </c>
+      <c r="P16">
+        <v>12.57020141423181</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44158662086546</v>
+        <v>13.93407880998368</v>
       </c>
       <c r="C17">
-        <v>8.800827557637144</v>
+        <v>8.607315924208873</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.02950297225858</v>
+        <v>11.10717865392878</v>
       </c>
       <c r="F17">
-        <v>40.02438280178951</v>
+        <v>29.30607860080874</v>
       </c>
       <c r="G17">
-        <v>2.074260598082549</v>
+        <v>25.70626195287581</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.853134065253968</v>
       </c>
       <c r="I17">
-        <v>11.59866646772105</v>
+        <v>2.559696149870026</v>
       </c>
       <c r="J17">
-        <v>4.370102326155662</v>
+        <v>9.711531213837111</v>
       </c>
       <c r="K17">
-        <v>13.72726027392085</v>
+        <v>14.60532186497741</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.91987349869373</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.55571923457466</v>
       </c>
       <c r="N17">
-        <v>11.2867639519771</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.27687229727165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.01915324706917</v>
+      </c>
+      <c r="P17">
+        <v>12.64254663318031</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.25520388890322</v>
+        <v>13.80702240214298</v>
       </c>
       <c r="C18">
-        <v>8.699559265481421</v>
+        <v>8.628933090937931</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.67739468766289</v>
+        <v>12.65930933268381</v>
       </c>
       <c r="F18">
-        <v>39.6160480203127</v>
+        <v>30.92524758347339</v>
       </c>
       <c r="G18">
-        <v>2.075329893282986</v>
+        <v>26.60288414457453</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.607492824997593</v>
       </c>
       <c r="I18">
-        <v>11.64135604426237</v>
+        <v>2.570404121412152</v>
       </c>
       <c r="J18">
-        <v>4.381756726090067</v>
+        <v>9.886752545365976</v>
       </c>
       <c r="K18">
-        <v>13.57229878293576</v>
+        <v>14.90971139592374</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.794772536537454</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.4817476990474</v>
       </c>
       <c r="N18">
-        <v>11.32974695185734</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.28125472789502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.85428337200365</v>
+      </c>
+      <c r="P18">
+        <v>12.69676983496205</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.19161146555632</v>
+        <v>13.78432047059299</v>
       </c>
       <c r="C19">
-        <v>8.665032332130586</v>
+        <v>8.782257578058635</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.55755921864783</v>
+        <v>14.85575625347324</v>
       </c>
       <c r="F19">
-        <v>39.47753761374413</v>
+        <v>33.17221774099789</v>
       </c>
       <c r="G19">
-        <v>2.075692969092966</v>
+        <v>27.7648003188734</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.122260532179952</v>
       </c>
       <c r="I19">
-        <v>11.65601344663946</v>
+        <v>2.562569200937594</v>
       </c>
       <c r="J19">
-        <v>4.385729933348825</v>
+        <v>10.09439481532799</v>
       </c>
       <c r="K19">
-        <v>13.51945397909025</v>
+        <v>15.26290822902038</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.712758128626164</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.51967743401376</v>
       </c>
       <c r="N19">
-        <v>11.34434148849544</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.28303058782131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.05037238093278</v>
+      </c>
+      <c r="P19">
+        <v>12.73886327593221</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.47585109165481</v>
+        <v>14.10785556982295</v>
       </c>
       <c r="C20">
-        <v>8.819456518077184</v>
+        <v>9.226349929663751</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.09437692543874</v>
+        <v>18.53665371378061</v>
       </c>
       <c r="F20">
-        <v>40.099833733376</v>
+        <v>37.06987203257449</v>
       </c>
       <c r="G20">
-        <v>2.074063180263221</v>
+        <v>29.77260740617684</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.642443805066854</v>
       </c>
       <c r="I20">
-        <v>11.59086332361387</v>
+        <v>2.550429466902562</v>
       </c>
       <c r="J20">
-        <v>4.367958336005652</v>
+        <v>10.41451665746774</v>
       </c>
       <c r="K20">
-        <v>13.75576092494233</v>
+        <v>15.80416401307111</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.743786821953167</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.87804582892028</v>
       </c>
       <c r="N20">
-        <v>11.27882825440181</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.27620128964128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.13903801706007</v>
+      </c>
+      <c r="P20">
+        <v>12.7426081540076</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.39718587531844</v>
+        <v>14.96435072110134</v>
       </c>
       <c r="C21">
-        <v>9.321731013276867</v>
+        <v>9.799124368259871</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.85510522935374</v>
+        <v>19.76211859637853</v>
       </c>
       <c r="F21">
-        <v>42.17214910977184</v>
+        <v>38.87214766948222</v>
       </c>
       <c r="G21">
-        <v>2.068655969414157</v>
+        <v>30.6919199628701</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.948845405866954</v>
       </c>
       <c r="I21">
-        <v>11.38680998381488</v>
+        <v>2.74528480740991</v>
       </c>
       <c r="J21">
-        <v>4.310170511092451</v>
+        <v>10.47684446326751</v>
       </c>
       <c r="K21">
-        <v>14.52351354283546</v>
+        <v>15.88173393037023</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.81583884307526</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.62247868006652</v>
       </c>
       <c r="N21">
-        <v>11.06152363567397</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>13.27440013985027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.15754122212436</v>
+      </c>
+      <c r="P21">
+        <v>12.54810127926586</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.97444369134995</v>
+        <v>15.51299731876431</v>
       </c>
       <c r="C22">
-        <v>9.637747600997141</v>
+        <v>10.12833478937508</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.03958439823661</v>
+        <v>20.36290207112132</v>
       </c>
       <c r="F22">
-        <v>43.51205408004832</v>
+        <v>39.88321255267083</v>
       </c>
       <c r="G22">
-        <v>2.065169464838351</v>
+        <v>31.27169177137698</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.137642282298927</v>
       </c>
       <c r="I22">
-        <v>11.26537488753284</v>
+        <v>2.86428290493154</v>
       </c>
       <c r="J22">
-        <v>4.273871856180338</v>
+        <v>10.5171733210846</v>
       </c>
       <c r="K22">
-        <v>15.00583816352654</v>
+        <v>15.93682895824158</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.858382109807922</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.08675224165376</v>
       </c>
       <c r="N22">
-        <v>10.92152952687317</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>13.28996550487726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.71149938999953</v>
+      </c>
+      <c r="P22">
+        <v>12.42129960644256</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.66861359106471</v>
+        <v>15.23955025591727</v>
       </c>
       <c r="C23">
-        <v>9.470197075856529</v>
+        <v>9.933522801943212</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.4084359137072</v>
+        <v>20.03032241713282</v>
       </c>
       <c r="F23">
-        <v>42.79827756929448</v>
+        <v>39.36558593378196</v>
       </c>
       <c r="G23">
-        <v>2.067026188883933</v>
+        <v>31.0194937066463</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.037778208582584</v>
       </c>
       <c r="I23">
-        <v>11.32903751669065</v>
+        <v>2.796386186216117</v>
       </c>
       <c r="J23">
-        <v>4.293108205593774</v>
+        <v>10.50612669990552</v>
       </c>
       <c r="K23">
-        <v>14.75018512848759</v>
+        <v>15.93168454428055</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.836661938031437</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.84451237720969</v>
       </c>
       <c r="N23">
-        <v>10.99606593159429</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>13.2800624738269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.41291937359904</v>
+      </c>
+      <c r="P23">
+        <v>12.49217805581886</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.46036918703598</v>
+        <v>14.12602571841933</v>
       </c>
       <c r="C24">
-        <v>8.811038837157833</v>
+        <v>9.204113682000855</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.06505910282022</v>
+        <v>18.74706926403221</v>
       </c>
       <c r="F24">
-        <v>40.06572766187055</v>
+        <v>37.32823443692091</v>
       </c>
       <c r="G24">
-        <v>2.074152412992822</v>
+        <v>29.98307260239794</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.650750296292411</v>
       </c>
       <c r="I24">
-        <v>11.59438730408056</v>
+        <v>2.542334242966772</v>
       </c>
       <c r="J24">
-        <v>4.368927121019484</v>
+        <v>10.45401366659113</v>
       </c>
       <c r="K24">
-        <v>13.74288283712878</v>
+        <v>15.88227314223551</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.750602425309787</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.88158993382263</v>
       </c>
       <c r="N24">
-        <v>11.28241518152188</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.2764992622465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.24881563661198</v>
+      </c>
+      <c r="P24">
+        <v>12.75672333179765</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.04892677010477</v>
+        <v>12.81535638347058</v>
       </c>
       <c r="C25">
-        <v>8.046853754346211</v>
+        <v>8.36580372315553</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>26.43111150014406</v>
+        <v>17.26573970641543</v>
       </c>
       <c r="F25">
-        <v>37.06136682348804</v>
+        <v>35.04178707158636</v>
       </c>
       <c r="G25">
-        <v>2.08206649142762</v>
+        <v>28.89316212022418</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.914224389210972</v>
       </c>
       <c r="I25">
-        <v>11.92642628422566</v>
+        <v>2.731816993569241</v>
       </c>
       <c r="J25">
-        <v>4.456794443933503</v>
+        <v>10.4126827562135</v>
       </c>
       <c r="K25">
-        <v>12.57238941849361</v>
+        <v>15.85007299834722</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.652499487190193</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.75811996181439</v>
       </c>
       <c r="N25">
-        <v>11.60043145269103</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.33820348276792</v>
+        <v>15.90760944380379</v>
+      </c>
+      <c r="P25">
+        <v>13.04571984123823</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.80570306796184</v>
+        <v>11.52974772604163</v>
       </c>
       <c r="C2">
-        <v>7.642863350654679</v>
+        <v>7.930322131872222</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.05223677460394</v>
+        <v>16.45440730875601</v>
       </c>
       <c r="F2">
-        <v>33.3468854256642</v>
+        <v>32.89009057104911</v>
       </c>
       <c r="G2">
-        <v>28.27037581091921</v>
+        <v>26.39231098977579</v>
       </c>
       <c r="H2">
-        <v>2.257800200895279</v>
+        <v>2.221127473707214</v>
       </c>
       <c r="I2">
-        <v>2.929790469797638</v>
+        <v>2.801268210901144</v>
       </c>
       <c r="J2">
-        <v>10.42103686002721</v>
+        <v>10.38708041678286</v>
       </c>
       <c r="K2">
-        <v>15.90422856928756</v>
+        <v>15.14075012882436</v>
       </c>
       <c r="L2">
-        <v>5.577999007059501</v>
+        <v>12.66071288458354</v>
       </c>
       <c r="M2">
-        <v>10.86862439993505</v>
+        <v>9.755466887041941</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.535981346987163</v>
       </c>
       <c r="O2">
-        <v>14.83496269253551</v>
+        <v>10.83028464592472</v>
       </c>
       <c r="P2">
-        <v>13.27143865789565</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.9684978211819</v>
+      </c>
+      <c r="R2">
+        <v>13.07666581837796</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.0339444551021</v>
+        <v>10.82402986208838</v>
       </c>
       <c r="C3">
-        <v>7.156647384112567</v>
+        <v>7.36996198936099</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.20245765005712</v>
+        <v>15.5774390936031</v>
       </c>
       <c r="F3">
-        <v>32.13091748271937</v>
+        <v>31.73048947522881</v>
       </c>
       <c r="G3">
-        <v>27.77894392467593</v>
+        <v>26.07378914276268</v>
       </c>
       <c r="H3">
-        <v>2.502349891963415</v>
+        <v>2.458068244587212</v>
       </c>
       <c r="I3">
-        <v>3.08791362891494</v>
+        <v>2.938316658266624</v>
       </c>
       <c r="J3">
-        <v>10.41807554805644</v>
+        <v>10.36661230728889</v>
       </c>
       <c r="K3">
-        <v>15.9151519865707</v>
+        <v>15.1953338925739</v>
       </c>
       <c r="L3">
-        <v>5.523107944126468</v>
+        <v>12.7900676443211</v>
       </c>
       <c r="M3">
-        <v>10.21420261892313</v>
+        <v>9.72820754964309</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.480538487237112</v>
       </c>
       <c r="O3">
-        <v>14.0732894728119</v>
+        <v>10.1958226755727</v>
       </c>
       <c r="P3">
-        <v>13.42209490768933</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.19481900850015</v>
+      </c>
+      <c r="R3">
+        <v>13.22157915988424</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.5291940660529</v>
+        <v>10.36257395277115</v>
       </c>
       <c r="C4">
-        <v>6.845107275472142</v>
+        <v>7.009766106348734</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.65774237051589</v>
+        <v>15.01601230101336</v>
       </c>
       <c r="F4">
-        <v>31.36752647435286</v>
+        <v>31.0023633609306</v>
       </c>
       <c r="G4">
-        <v>27.48301723630171</v>
+        <v>25.88640606224128</v>
       </c>
       <c r="H4">
-        <v>2.658029910414683</v>
+        <v>2.608960481973567</v>
       </c>
       <c r="I4">
-        <v>3.189216660005083</v>
+        <v>3.026494147670243</v>
       </c>
       <c r="J4">
-        <v>10.41897681176209</v>
+        <v>10.35460207549614</v>
       </c>
       <c r="K4">
-        <v>15.9251485058957</v>
+        <v>15.23075741104427</v>
       </c>
       <c r="L4">
-        <v>5.487820852655958</v>
+        <v>12.86987167983449</v>
       </c>
       <c r="M4">
-        <v>9.789749859653314</v>
+        <v>9.72929385739433</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.44493301361361</v>
       </c>
       <c r="O4">
-        <v>13.58589615442024</v>
+        <v>9.784407181511545</v>
       </c>
       <c r="P4">
-        <v>13.51584470447112</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.69972600221989</v>
+      </c>
+      <c r="R4">
+        <v>13.31193074323875</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.30961697952826</v>
+        <v>10.16162403836023</v>
       </c>
       <c r="C5">
-        <v>6.722091743724948</v>
+        <v>6.866280707173644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.43492636429557</v>
+        <v>14.78626048063226</v>
       </c>
       <c r="F5">
-        <v>31.04625212393862</v>
+        <v>30.69579113736218</v>
       </c>
       <c r="G5">
-        <v>27.34726252157882</v>
+        <v>25.79600647440398</v>
       </c>
       <c r="H5">
-        <v>2.723057550055482</v>
+        <v>2.671993167218283</v>
       </c>
       <c r="I5">
-        <v>3.234417602564826</v>
+        <v>3.066781460819821</v>
       </c>
       <c r="J5">
-        <v>10.41715212836347</v>
+        <v>10.34705985882143</v>
       </c>
       <c r="K5">
-        <v>15.92354914612247</v>
+        <v>15.23960088918561</v>
       </c>
       <c r="L5">
-        <v>5.472751625414683</v>
+        <v>12.89689724989092</v>
       </c>
       <c r="M5">
-        <v>9.609824554185678</v>
+        <v>9.730702181655923</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.429771441383137</v>
       </c>
       <c r="O5">
-        <v>13.3841411527635</v>
+        <v>9.61005520283747</v>
       </c>
       <c r="P5">
-        <v>13.55331727105269</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.49471076389101</v>
+      </c>
+      <c r="R5">
+        <v>13.34823538482063</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.26523605946413</v>
+        <v>10.12071697549388</v>
       </c>
       <c r="C6">
-        <v>6.710286342010156</v>
+        <v>6.851212077118357</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.40345731069908</v>
+        <v>14.75345586070532</v>
       </c>
       <c r="F6">
-        <v>30.98490897178034</v>
+        <v>30.63714164740158</v>
       </c>
       <c r="G6">
-        <v>27.30441183270217</v>
+        <v>25.76149670368017</v>
       </c>
       <c r="H6">
-        <v>2.734157532835304</v>
+        <v>2.68274371391827</v>
       </c>
       <c r="I6">
-        <v>3.245645587193417</v>
+        <v>3.077830822441689</v>
       </c>
       <c r="J6">
-        <v>10.41339591845134</v>
+        <v>10.34241261496873</v>
       </c>
       <c r="K6">
-        <v>15.91542099923022</v>
+        <v>15.2337065330051</v>
       </c>
       <c r="L6">
-        <v>5.469875184552045</v>
+        <v>12.89456638504656</v>
       </c>
       <c r="M6">
-        <v>9.578025408450101</v>
+        <v>9.726914986553822</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.426919506497192</v>
       </c>
       <c r="O6">
-        <v>13.35237930031308</v>
+        <v>9.579262007319107</v>
       </c>
       <c r="P6">
-        <v>13.5582718745378</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.46234297283109</v>
+      </c>
+      <c r="R6">
+        <v>13.35322787173866</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.50640002488203</v>
+        <v>10.33623243760639</v>
       </c>
       <c r="C7">
-        <v>6.866982424653719</v>
+        <v>7.020011495637156</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.670465784941</v>
+        <v>15.03922082542891</v>
       </c>
       <c r="F7">
-        <v>31.34225757342669</v>
+        <v>30.96555381736671</v>
       </c>
       <c r="G7">
-        <v>27.42579130141763</v>
+        <v>25.89643783982282</v>
       </c>
       <c r="H7">
-        <v>2.659483251975464</v>
+        <v>2.61074143093876</v>
       </c>
       <c r="I7">
-        <v>3.199512695326007</v>
+        <v>3.039063753250482</v>
       </c>
       <c r="J7">
-        <v>10.40943049072294</v>
+        <v>10.30637426592604</v>
       </c>
       <c r="K7">
-        <v>15.90354511956214</v>
+        <v>15.20194387622231</v>
       </c>
       <c r="L7">
-        <v>5.486680788964054</v>
+        <v>12.84406514255963</v>
       </c>
       <c r="M7">
-        <v>9.783115329910521</v>
+        <v>9.711780827625612</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.443433555409592</v>
       </c>
       <c r="O7">
-        <v>13.58861142604783</v>
+        <v>9.771369462252109</v>
       </c>
       <c r="P7">
-        <v>13.51288771996207</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.70358396745966</v>
+      </c>
+      <c r="R7">
+        <v>13.30824619800356</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52171121064831</v>
+        <v>11.25461883379313</v>
       </c>
       <c r="C8">
-        <v>7.50668524074511</v>
+        <v>7.733529442591693</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.78351202971981</v>
+        <v>16.21030505723875</v>
       </c>
       <c r="F8">
-        <v>32.90490672288664</v>
+        <v>32.42895177299207</v>
       </c>
       <c r="G8">
-        <v>28.02816237096123</v>
+        <v>26.42405522566317</v>
       </c>
       <c r="H8">
-        <v>2.341716492017306</v>
+        <v>2.303616003134872</v>
       </c>
       <c r="I8">
-        <v>2.995880602092577</v>
+        <v>2.864313527163653</v>
       </c>
       <c r="J8">
-        <v>10.40694614607311</v>
+        <v>10.24116751093396</v>
       </c>
       <c r="K8">
-        <v>15.87890564508926</v>
+        <v>15.10406194999509</v>
       </c>
       <c r="L8">
-        <v>5.558229021478265</v>
+        <v>12.65886990616188</v>
       </c>
       <c r="M8">
-        <v>10.64247069960679</v>
+        <v>9.70462498721175</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.514745353936724</v>
       </c>
       <c r="O8">
-        <v>14.58321930842069</v>
+        <v>10.59048739959527</v>
       </c>
       <c r="P8">
-        <v>13.31880717334573</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.71665845436594</v>
+      </c>
+      <c r="R8">
+        <v>13.11895504587883</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.30069746430575</v>
+        <v>12.88046528232033</v>
       </c>
       <c r="C9">
-        <v>8.620715003368872</v>
+        <v>9.010553253121966</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.7539250965587</v>
+        <v>18.25308055730049</v>
       </c>
       <c r="F9">
-        <v>35.85607628819602</v>
+        <v>35.23668617639563</v>
       </c>
       <c r="G9">
-        <v>29.34903631829378</v>
+        <v>27.37916212946914</v>
       </c>
       <c r="H9">
-        <v>1.760521849593201</v>
+        <v>1.74107837078404</v>
       </c>
       <c r="I9">
-        <v>2.613588716763054</v>
+        <v>2.532195934168986</v>
       </c>
       <c r="J9">
-        <v>10.44139870560662</v>
+        <v>10.2729987795014</v>
       </c>
       <c r="K9">
-        <v>15.89629905928289</v>
+        <v>14.99562489033041</v>
       </c>
       <c r="L9">
-        <v>5.687713840908752</v>
+        <v>12.35657871824422</v>
       </c>
       <c r="M9">
-        <v>12.15426744383498</v>
+        <v>9.876305279120684</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.645399913568673</v>
       </c>
       <c r="O9">
-        <v>16.36251320018527</v>
+        <v>12.05341296524239</v>
       </c>
       <c r="P9">
-        <v>12.95318083596097</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.52449394219808</v>
+      </c>
+      <c r="R9">
+        <v>12.76743966947119</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.44738835361414</v>
+        <v>13.91088718335266</v>
       </c>
       <c r="C10">
-        <v>9.361365764094508</v>
+        <v>9.798530465669906</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.77427258901545</v>
+        <v>19.37114881674179</v>
       </c>
       <c r="F10">
-        <v>37.58778661157511</v>
+        <v>36.81473390206415</v>
       </c>
       <c r="G10">
-        <v>30.14894290764034</v>
+        <v>28.30185772650944</v>
       </c>
       <c r="H10">
-        <v>1.744013177025677</v>
+        <v>1.74851292428523</v>
       </c>
       <c r="I10">
-        <v>2.603990101080466</v>
+        <v>2.655367512645769</v>
       </c>
       <c r="J10">
-        <v>10.44708597694895</v>
+        <v>10.05885098453968</v>
       </c>
       <c r="K10">
-        <v>15.86504753057567</v>
+        <v>14.82641191443592</v>
       </c>
       <c r="L10">
-        <v>5.766860059267626</v>
+        <v>12.06485584245417</v>
       </c>
       <c r="M10">
-        <v>13.14082130160765</v>
+        <v>10.00197802785926</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.726742535546838</v>
       </c>
       <c r="O10">
-        <v>17.39953444173793</v>
+        <v>12.97832113957283</v>
       </c>
       <c r="P10">
-        <v>12.68042391351281</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.58494986918519</v>
+      </c>
+      <c r="R10">
+        <v>12.50538183329364</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.86388014131529</v>
+        <v>14.28323731356397</v>
       </c>
       <c r="C11">
-        <v>9.499149935563969</v>
+        <v>9.816346919486756</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.55863001971238</v>
+        <v>17.24074436067242</v>
       </c>
       <c r="F11">
-        <v>35.57402873938398</v>
+        <v>34.68671583422122</v>
       </c>
       <c r="G11">
-        <v>28.98205585675129</v>
+        <v>27.94440749117197</v>
       </c>
       <c r="H11">
-        <v>2.694795625598573</v>
+        <v>2.693330728189914</v>
       </c>
       <c r="I11">
-        <v>2.688118229623548</v>
+        <v>2.72626930633775</v>
       </c>
       <c r="J11">
-        <v>10.17780875699279</v>
+        <v>9.420494463603072</v>
       </c>
       <c r="K11">
-        <v>15.37177960185659</v>
+        <v>14.2789271484031</v>
       </c>
       <c r="L11">
-        <v>5.782999178634951</v>
+        <v>11.61280958304255</v>
       </c>
       <c r="M11">
-        <v>13.45544792285484</v>
+        <v>9.668175998236977</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.773709516053024</v>
       </c>
       <c r="O11">
-        <v>16.42014893331347</v>
+        <v>13.22484823831644</v>
       </c>
       <c r="P11">
-        <v>12.50114336505389</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.6142898655103</v>
+      </c>
+      <c r="R11">
+        <v>12.36595547275377</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.00688667500341</v>
+        <v>14.42451245074508</v>
       </c>
       <c r="C12">
-        <v>9.436133923940289</v>
+        <v>9.673556583753264</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.48338109304833</v>
+        <v>15.17754566824328</v>
       </c>
       <c r="F12">
-        <v>33.51779950638251</v>
+        <v>32.60432916121196</v>
       </c>
       <c r="G12">
-        <v>27.88524426674092</v>
+        <v>27.27942619053566</v>
       </c>
       <c r="H12">
-        <v>4.041292030692059</v>
+        <v>4.042875655721001</v>
       </c>
       <c r="I12">
-        <v>2.702892225414533</v>
+        <v>2.736630831489047</v>
       </c>
       <c r="J12">
-        <v>9.960001354249577</v>
+        <v>9.090916325175053</v>
       </c>
       <c r="K12">
-        <v>14.99242574062004</v>
+        <v>13.9155050415222</v>
       </c>
       <c r="L12">
-        <v>5.85279359042525</v>
+        <v>11.3450120914223</v>
       </c>
       <c r="M12">
-        <v>13.52548590820561</v>
+        <v>9.400557519110643</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.872170497720766</v>
       </c>
       <c r="O12">
-        <v>15.36055403865218</v>
+        <v>13.26795810258435</v>
       </c>
       <c r="P12">
-        <v>12.42445027338522</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.55353104086026</v>
+      </c>
+      <c r="R12">
+        <v>12.32464952350362</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.93007669828766</v>
+        <v>14.38853229065805</v>
       </c>
       <c r="C13">
-        <v>9.240047294212516</v>
+        <v>9.442937085391776</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.37847736540922</v>
+        <v>13.00767513543372</v>
       </c>
       <c r="F13">
-        <v>31.23668624760577</v>
+        <v>30.38882842587127</v>
       </c>
       <c r="G13">
-        <v>26.6807751868037</v>
+        <v>26.08756715334586</v>
       </c>
       <c r="H13">
-        <v>5.508751863522889</v>
+        <v>5.509270887513329</v>
       </c>
       <c r="I13">
-        <v>2.670726137982026</v>
+        <v>2.709257967268264</v>
       </c>
       <c r="J13">
-        <v>9.753773956031242</v>
+        <v>8.995727902480843</v>
       </c>
       <c r="K13">
-        <v>14.64494557814247</v>
+        <v>13.65747447769609</v>
       </c>
       <c r="L13">
-        <v>5.961810737209257</v>
+        <v>11.18032646866135</v>
       </c>
       <c r="M13">
-        <v>13.40895462520544</v>
+        <v>9.162005635950846</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.002717999721001</v>
       </c>
       <c r="O13">
-        <v>14.15375122890337</v>
+        <v>13.1671613621849</v>
       </c>
       <c r="P13">
-        <v>12.41562766120644</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.33490876606132</v>
+      </c>
+      <c r="R13">
+        <v>12.3445743111491</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.77149539530538</v>
+        <v>14.27821088052583</v>
       </c>
       <c r="C14">
-        <v>9.045501880558092</v>
+        <v>9.243007400247226</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.90622985081269</v>
+        <v>11.45540395842519</v>
       </c>
       <c r="F14">
-        <v>29.51905246759414</v>
+        <v>28.75748314096552</v>
       </c>
       <c r="G14">
-        <v>25.77115401107825</v>
+        <v>25.00936014530589</v>
       </c>
       <c r="H14">
-        <v>6.538081735636189</v>
+        <v>6.537596314256695</v>
       </c>
       <c r="I14">
-        <v>2.628430965486577</v>
+        <v>2.674809849500191</v>
       </c>
       <c r="J14">
-        <v>9.613036503185304</v>
+        <v>9.0173287270473</v>
       </c>
       <c r="K14">
-        <v>14.41281097474514</v>
+        <v>13.5173766352855</v>
       </c>
       <c r="L14">
-        <v>6.062075439719385</v>
+        <v>11.10311624658545</v>
       </c>
       <c r="M14">
-        <v>13.24067264742115</v>
+        <v>9.005405400228989</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.11172605042811</v>
       </c>
       <c r="O14">
-        <v>13.23039725056551</v>
+        <v>13.0289476352243</v>
       </c>
       <c r="P14">
-        <v>12.4405897419984</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.39833875838216</v>
+      </c>
+      <c r="R14">
+        <v>12.38370188424125</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.67905623417289</v>
+        <v>14.20640054301671</v>
       </c>
       <c r="C15">
-        <v>8.975768347479923</v>
+        <v>9.179888569205277</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.54058928019295</v>
+        <v>11.05836086766245</v>
       </c>
       <c r="F15">
-        <v>29.04633351118474</v>
+        <v>28.32295517007471</v>
       </c>
       <c r="G15">
-        <v>25.51040603872836</v>
+        <v>24.63450860512501</v>
       </c>
       <c r="H15">
-        <v>6.777380654725238</v>
+        <v>6.776443230580849</v>
       </c>
       <c r="I15">
-        <v>2.609617256845548</v>
+        <v>2.66040758468662</v>
       </c>
       <c r="J15">
-        <v>9.578744152301399</v>
+        <v>9.059393504873844</v>
       </c>
       <c r="K15">
-        <v>14.35677712576943</v>
+        <v>13.49669148418521</v>
       </c>
       <c r="L15">
-        <v>6.085590666244845</v>
+        <v>11.09785956879162</v>
       </c>
       <c r="M15">
-        <v>13.15773896965662</v>
+        <v>8.968157327885438</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.13503367432887</v>
       </c>
       <c r="O15">
-        <v>12.97410347992889</v>
+        <v>12.96168492886195</v>
       </c>
       <c r="P15">
-        <v>12.45902905698912</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.1367039926668</v>
+      </c>
+      <c r="R15">
+        <v>12.40336518122847</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.21251389289929</v>
+        <v>13.81514573749114</v>
       </c>
       <c r="C16">
-        <v>8.70746856477491</v>
+        <v>8.974561719977499</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.41076276376475</v>
+        <v>10.83882295653832</v>
       </c>
       <c r="F16">
-        <v>28.66331556140809</v>
+        <v>28.08205415886247</v>
       </c>
       <c r="G16">
-        <v>25.34267947610551</v>
+        <v>23.87901583036584</v>
       </c>
       <c r="H16">
-        <v>6.58059232695834</v>
+        <v>6.577193102761927</v>
       </c>
       <c r="I16">
-        <v>2.511491063178559</v>
+        <v>2.5810825568586</v>
       </c>
       <c r="J16">
-        <v>9.611592658264248</v>
+        <v>9.409849632715725</v>
       </c>
       <c r="K16">
-        <v>14.42834906501177</v>
+        <v>13.67118967346099</v>
       </c>
       <c r="L16">
-        <v>6.025101301800788</v>
+        <v>11.26158340102854</v>
       </c>
       <c r="M16">
-        <v>12.76772025942101</v>
+        <v>9.018324955295952</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.05795124618831</v>
       </c>
       <c r="O16">
-        <v>12.71125079557206</v>
+        <v>12.64178729025551</v>
       </c>
       <c r="P16">
-        <v>12.57020141423181</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.8564279819391</v>
+      </c>
+      <c r="R16">
+        <v>12.49520059900859</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.93407880998368</v>
+        <v>13.56285217990963</v>
       </c>
       <c r="C17">
-        <v>8.607315924208873</v>
+        <v>8.913183618359257</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.10717865392878</v>
+        <v>11.5148998634216</v>
       </c>
       <c r="F17">
-        <v>29.30607860080874</v>
+        <v>28.77344023851694</v>
       </c>
       <c r="G17">
-        <v>25.70626195287581</v>
+        <v>23.97211764750089</v>
       </c>
       <c r="H17">
-        <v>5.853134065253968</v>
+        <v>5.847838397040293</v>
       </c>
       <c r="I17">
-        <v>2.559696149870026</v>
+        <v>2.537982616063378</v>
       </c>
       <c r="J17">
-        <v>9.711531213837111</v>
+        <v>9.640431658302996</v>
       </c>
       <c r="K17">
-        <v>14.60532186497741</v>
+        <v>13.87064325217819</v>
       </c>
       <c r="L17">
-        <v>5.91987349869373</v>
+        <v>11.42933400860344</v>
       </c>
       <c r="M17">
-        <v>12.55571923457466</v>
+        <v>9.129021101407888</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.939762449908899</v>
       </c>
       <c r="O17">
-        <v>13.01915324706917</v>
+        <v>12.45946443665115</v>
       </c>
       <c r="P17">
-        <v>12.64254663318031</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.15969802922334</v>
+      </c>
+      <c r="R17">
+        <v>12.54990704399156</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.80702240214298</v>
+        <v>13.42893616248377</v>
       </c>
       <c r="C18">
-        <v>8.628933090937931</v>
+        <v>8.975607486117564</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.65930933268381</v>
+        <v>13.08055754265943</v>
       </c>
       <c r="F18">
-        <v>30.92524758347339</v>
+        <v>30.38827082251497</v>
       </c>
       <c r="G18">
-        <v>26.60288414457453</v>
+        <v>24.69378458005744</v>
       </c>
       <c r="H18">
-        <v>4.607492824997593</v>
+        <v>4.600276792354715</v>
       </c>
       <c r="I18">
-        <v>2.570404121412152</v>
+        <v>2.517059064585431</v>
       </c>
       <c r="J18">
-        <v>9.886752545365976</v>
+        <v>9.855100311663129</v>
       </c>
       <c r="K18">
-        <v>14.90971139592374</v>
+        <v>14.147147516411</v>
       </c>
       <c r="L18">
-        <v>5.794772536537454</v>
+        <v>11.64444328593106</v>
       </c>
       <c r="M18">
-        <v>12.4817476990474</v>
+        <v>9.325564860864105</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.800584734192425</v>
       </c>
       <c r="O18">
-        <v>13.85428337200365</v>
+        <v>12.3941926178252</v>
       </c>
       <c r="P18">
-        <v>12.69676983496205</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.99855384602865</v>
+      </c>
+      <c r="R18">
+        <v>12.58336241191467</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.78432047059299</v>
+        <v>13.37799903810494</v>
       </c>
       <c r="C19">
-        <v>8.782257578058635</v>
+        <v>9.176121349629954</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.85575625347324</v>
+        <v>15.30724559939498</v>
       </c>
       <c r="F19">
-        <v>33.17221774099789</v>
+        <v>32.59944603675836</v>
       </c>
       <c r="G19">
-        <v>27.7648003188734</v>
+        <v>25.717664780941</v>
       </c>
       <c r="H19">
-        <v>3.122260532179952</v>
+        <v>3.112645510656701</v>
       </c>
       <c r="I19">
-        <v>2.562569200937594</v>
+        <v>2.530603782837853</v>
       </c>
       <c r="J19">
-        <v>10.09439481532799</v>
+        <v>10.05312472131865</v>
       </c>
       <c r="K19">
-        <v>15.26290822902038</v>
+        <v>14.44353491734949</v>
       </c>
       <c r="L19">
-        <v>5.712758128626164</v>
+        <v>11.86609318302526</v>
       </c>
       <c r="M19">
-        <v>12.51967743401376</v>
+        <v>9.556814476351574</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.701865196493861</v>
       </c>
       <c r="O19">
-        <v>15.05037238093278</v>
+        <v>12.42829293441822</v>
       </c>
       <c r="P19">
-        <v>12.73886327593221</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.20343819342872</v>
+      </c>
+      <c r="R19">
+        <v>12.60281650134019</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.10785556982295</v>
+        <v>13.61615865078002</v>
       </c>
       <c r="C20">
-        <v>9.226349929663751</v>
+        <v>9.684067227275689</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.53665371378061</v>
+        <v>19.07519991349075</v>
       </c>
       <c r="F20">
-        <v>37.06987203257449</v>
+        <v>36.37608656987044</v>
       </c>
       <c r="G20">
-        <v>29.77260740617684</v>
+        <v>27.67848199363048</v>
       </c>
       <c r="H20">
-        <v>1.642443805066854</v>
+        <v>1.651944824526707</v>
       </c>
       <c r="I20">
-        <v>2.550429466902562</v>
+        <v>2.616390849789551</v>
       </c>
       <c r="J20">
-        <v>10.41451665746774</v>
+        <v>10.21749404823112</v>
       </c>
       <c r="K20">
-        <v>15.80416401307111</v>
+        <v>14.83916937639021</v>
       </c>
       <c r="L20">
-        <v>5.743786821953167</v>
+        <v>12.11847562435031</v>
       </c>
       <c r="M20">
-        <v>12.87804582892028</v>
+        <v>9.938973451269668</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.704770786210964</v>
       </c>
       <c r="O20">
-        <v>17.13903801706007</v>
+        <v>12.75062845661005</v>
       </c>
       <c r="P20">
-        <v>12.7426081540076</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.31425995332308</v>
+      </c>
+      <c r="R20">
+        <v>12.57098214864165</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.96435072110134</v>
+        <v>14.31363827638027</v>
       </c>
       <c r="C21">
-        <v>9.799124368259871</v>
+        <v>10.13622226453788</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.76211859637853</v>
+        <v>20.54545822012212</v>
       </c>
       <c r="F21">
-        <v>38.87214766948222</v>
+        <v>37.86039645398905</v>
       </c>
       <c r="G21">
-        <v>30.6919199628701</v>
+        <v>29.83368347694426</v>
       </c>
       <c r="H21">
-        <v>1.948845405866954</v>
+        <v>1.941617047780518</v>
       </c>
       <c r="I21">
-        <v>2.74528480740991</v>
+        <v>2.774870151789758</v>
       </c>
       <c r="J21">
-        <v>10.47684446326751</v>
+        <v>9.463092618122216</v>
       </c>
       <c r="K21">
-        <v>15.88173393037023</v>
+        <v>14.63351344420134</v>
       </c>
       <c r="L21">
-        <v>5.81583884307526</v>
+        <v>11.84798214955521</v>
       </c>
       <c r="M21">
-        <v>13.62247868006652</v>
+        <v>9.986801448821051</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.767392295714887</v>
       </c>
       <c r="O21">
-        <v>18.15754122212436</v>
+        <v>13.3520455198407</v>
       </c>
       <c r="P21">
-        <v>12.54810127926586</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.37124318370256</v>
+      </c>
+      <c r="R21">
+        <v>12.36400196504269</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.51299731876431</v>
+        <v>14.76004827796573</v>
       </c>
       <c r="C22">
-        <v>10.12833478937508</v>
+        <v>10.37720424458038</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.36290207112132</v>
+        <v>21.31114086092117</v>
       </c>
       <c r="F22">
-        <v>39.88321255267083</v>
+        <v>38.65796817217961</v>
       </c>
       <c r="G22">
-        <v>31.27169177137698</v>
+        <v>31.32877622941784</v>
       </c>
       <c r="H22">
-        <v>2.137642282298927</v>
+        <v>2.11970040506458</v>
       </c>
       <c r="I22">
-        <v>2.86428290493154</v>
+        <v>2.869315747562435</v>
       </c>
       <c r="J22">
-        <v>10.5171733210846</v>
+        <v>8.982280705827145</v>
       </c>
       <c r="K22">
-        <v>15.93682895824158</v>
+        <v>14.49012615307547</v>
       </c>
       <c r="L22">
-        <v>5.858382109807922</v>
+        <v>11.66922105421926</v>
       </c>
       <c r="M22">
-        <v>14.08675224165376</v>
+        <v>10.01828039539972</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.804900009064093</v>
       </c>
       <c r="O22">
-        <v>18.71149938999953</v>
+        <v>13.72079240953577</v>
       </c>
       <c r="P22">
-        <v>12.42129960644256</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.95004527372522</v>
+      </c>
+      <c r="R22">
+        <v>12.23060064823373</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.23955025591727</v>
+        <v>14.54912620055352</v>
       </c>
       <c r="C23">
-        <v>9.933522801943212</v>
+        <v>10.25126213157783</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.03032241713282</v>
+        <v>20.86846326686376</v>
       </c>
       <c r="F23">
-        <v>39.36558593378196</v>
+        <v>38.27982414251478</v>
       </c>
       <c r="G23">
-        <v>31.0194937066463</v>
+        <v>30.42147974494232</v>
       </c>
       <c r="H23">
-        <v>2.037778208582584</v>
+        <v>2.026127746446137</v>
       </c>
       <c r="I23">
-        <v>2.796386186216117</v>
+        <v>2.814004084266945</v>
       </c>
       <c r="J23">
-        <v>10.50612669990552</v>
+        <v>9.318506227250952</v>
       </c>
       <c r="K23">
-        <v>15.93168454428055</v>
+        <v>14.61046714923971</v>
       </c>
       <c r="L23">
-        <v>5.836661938031437</v>
+        <v>11.79318836764033</v>
       </c>
       <c r="M23">
-        <v>13.84451237720969</v>
+        <v>10.03873330273862</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.78644635722134</v>
       </c>
       <c r="O23">
-        <v>18.41291937359904</v>
+        <v>13.54207284723787</v>
       </c>
       <c r="P23">
-        <v>12.49217805581886</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.63577741567165</v>
+      </c>
+      <c r="R23">
+        <v>12.30502109690016</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.12602571841933</v>
+        <v>13.63140839678721</v>
       </c>
       <c r="C24">
-        <v>9.204113682000855</v>
+        <v>9.666948428225949</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.74706926403221</v>
+        <v>19.287281383614</v>
       </c>
       <c r="F24">
-        <v>37.32823443692091</v>
+        <v>36.63181835879239</v>
       </c>
       <c r="G24">
-        <v>29.98307260239794</v>
+        <v>27.86414025076716</v>
       </c>
       <c r="H24">
-        <v>1.650750296292411</v>
+        <v>1.66022041078913</v>
       </c>
       <c r="I24">
-        <v>2.542334242966772</v>
+        <v>2.605999576306119</v>
       </c>
       <c r="J24">
-        <v>10.45401366659113</v>
+        <v>10.25936870863367</v>
       </c>
       <c r="K24">
-        <v>15.88227314223551</v>
+        <v>14.90906777462173</v>
       </c>
       <c r="L24">
-        <v>5.750602425309787</v>
+        <v>12.17074665895078</v>
       </c>
       <c r="M24">
-        <v>12.88158993382263</v>
+        <v>9.993059721935053</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.709053247943284</v>
       </c>
       <c r="O24">
-        <v>17.24881563661198</v>
+        <v>12.75444141802968</v>
       </c>
       <c r="P24">
-        <v>12.75672333179765</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.42488061137745</v>
+      </c>
+      <c r="R24">
+        <v>12.58032980268507</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.81535638347058</v>
+        <v>12.44124887432758</v>
       </c>
       <c r="C25">
-        <v>8.36580372315553</v>
+        <v>8.728613089655889</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.26573970641543</v>
+        <v>17.73126002487333</v>
       </c>
       <c r="F25">
-        <v>35.04178707158636</v>
+        <v>34.47726526837862</v>
       </c>
       <c r="G25">
-        <v>28.89316212022418</v>
+        <v>26.93349225188648</v>
       </c>
       <c r="H25">
-        <v>1.914224389210972</v>
+        <v>1.889240925599115</v>
       </c>
       <c r="I25">
-        <v>2.731816993569241</v>
+        <v>2.63941418090782</v>
       </c>
       <c r="J25">
-        <v>10.4126827562135</v>
+        <v>10.30165919171869</v>
       </c>
       <c r="K25">
-        <v>15.85007299834722</v>
+        <v>15.00029736016238</v>
       </c>
       <c r="L25">
-        <v>5.652499487190193</v>
+        <v>12.4206614087279</v>
       </c>
       <c r="M25">
-        <v>11.75811996181439</v>
+        <v>9.797277194280278</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.610667461907636</v>
       </c>
       <c r="O25">
-        <v>15.90760944380379</v>
+        <v>11.6782656115048</v>
       </c>
       <c r="P25">
-        <v>13.04571984123823</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.06035014562166</v>
+      </c>
+      <c r="R25">
+        <v>12.85914588156236</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
